--- a/Data/Emails.xlsx
+++ b/Data/Emails.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lobod\Downloads\Gmail-Bulk-Personalized-Email-Sender-main\Gmail-Bulk-Personalized-Email-Sender-main\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lobod\OneDrive\Documentos\Mailing-Python\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA420F0-C4FD-4291-84A7-BF3BFE619D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15435DD1-BFC0-4F3F-BA87-6E7E6EE35CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="85">
   <si>
     <t>Name</t>
   </si>
@@ -51,12 +51,6 @@
     <t>Learn from our top Data Analytics course to land your dream job.</t>
   </si>
   <si>
-    <t>Benito</t>
-  </si>
-  <si>
-    <t>Harry</t>
-  </si>
-  <si>
     <t>soporte@despachoatm.com</t>
   </si>
   <si>
@@ -73,13 +67,226 @@
   </si>
   <si>
     <t>mensaje de prueba</t>
+  </si>
+  <si>
+    <t>soporte</t>
+  </si>
+  <si>
+    <t>milton</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.4</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.3</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.2</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.1</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.5</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.6</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.7</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.8</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.9</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.10</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.11</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.12</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.13</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.14</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.15</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.16</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.17</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.18</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.19</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.20</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.21</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.22</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.23</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.24</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.25</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.26</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.27</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.28</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.29</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.30</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.31</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.32</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.33</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.34</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.35</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.36</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.37</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.38</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.39</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.40</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.41</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.42</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.43</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.44</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.45</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.46</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.47</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.48</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.49</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.50</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.51</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.52</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.53</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.54</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.55</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.56</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.57</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.58</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.59</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.60</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.61</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.62</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.63</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.64</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.65</t>
+  </si>
+  <si>
+    <t>davidglezm2021@gmail.66</t>
+  </si>
+  <si>
+    <t>mio</t>
+  </si>
+  <si>
+    <t>cnet56720@gmail.com</t>
+  </si>
+  <si>
+    <t>prueba</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +306,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -430,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,10 +673,10 @@
     </row>
     <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -474,10 +687,10 @@
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -488,23 +701,1059 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>15</v>
       </c>
+      <c r="B19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>33</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>37</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>39</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>40</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>41</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>42</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>43</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>44</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>45</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>46</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>47</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>48</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>49</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>50</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>51</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>52</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>53</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>54</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>55</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>56</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>57</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>58</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>59</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>60</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>61</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>62</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>63</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>64</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>65</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>66</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>82</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" t="s">
+        <v>84</v>
+      </c>
+      <c r="D73" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{5CA70BFB-DB32-47B7-A65F-5299CB504BEA}"/>
-    <hyperlink ref="B3" r:id="rId2" display="harry.styles@outlook.com" xr:uid="{30F5F89E-EC37-4C40-96B3-C8BE048EF96F}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{93F092B7-131D-4CDB-A17D-6E5C5B597644}"/>
+    <hyperlink ref="B3" r:id="rId1" display="harry.styles@outlook.com" xr:uid="{30F5F89E-EC37-4C40-96B3-C8BE048EF96F}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{93F092B7-131D-4CDB-A17D-6E5C5B597644}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{69BA6A04-5BD7-46CC-A6A5-A753556A1325}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{C92A3A7C-9251-4B88-8CC6-BACDEA649C28}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{F15B894D-15C3-42B9-9C5C-323D227602CD}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{77122F4E-A184-4656-A8E2-D6D76C8F3C0F}"/>
+    <hyperlink ref="B9" r:id="rId7" display="davidglezm2021@gmail.1" xr:uid="{E2426AE5-E5A9-42B5-934E-D4F9114F550C}"/>
+    <hyperlink ref="B13" r:id="rId8" display="davidglezm2021@gmail.1" xr:uid="{B569781B-F1EE-4524-9774-C5281B3BDFB0}"/>
+    <hyperlink ref="B17" r:id="rId9" display="davidglezm2021@gmail.1" xr:uid="{B3C39A40-0DEE-4D55-83FE-EAACC0C70997}"/>
+    <hyperlink ref="B10" r:id="rId10" display="davidglezm2021@gmail.2" xr:uid="{9EC392C8-2DDF-4C5C-8BD4-8661DAD173A9}"/>
+    <hyperlink ref="B14" r:id="rId11" display="davidglezm2021@gmail.2" xr:uid="{F0E37D36-24FA-4882-AD69-A18FFF7BDF0F}"/>
+    <hyperlink ref="B18" r:id="rId12" display="davidglezm2021@gmail.4" xr:uid="{5F92D7B4-754C-49F1-9605-548137A77BDF}"/>
+    <hyperlink ref="B11" r:id="rId13" display="davidglezm2021@gmail.3" xr:uid="{2E1E77E2-08BC-48A4-97D8-B6B3043B1E67}"/>
+    <hyperlink ref="B15" r:id="rId14" display="davidglezm2021@gmail.3" xr:uid="{5176DC45-F74F-4CB7-8460-AB1AB5A66132}"/>
+    <hyperlink ref="B12" r:id="rId15" display="davidglezm2021@gmail.4" xr:uid="{62553419-C564-4D6D-B8F5-59BE04261ED3}"/>
+    <hyperlink ref="B16" r:id="rId16" display="davidglezm2021@gmail.4" xr:uid="{E7E5D81C-1F04-41A7-BE0C-7456F1385D79}"/>
+    <hyperlink ref="B19" r:id="rId17" display="davidglezm2021@gmail.1" xr:uid="{17F6456E-634B-4039-850D-732AD2591C4D}"/>
+    <hyperlink ref="B33" r:id="rId18" display="davidglezm2021@gmail.1" xr:uid="{F66CE417-4D0D-47AC-9D6F-38508D951DD8}"/>
+    <hyperlink ref="B47" r:id="rId19" display="davidglezm2021@gmail.1" xr:uid="{731B272F-AD39-4FEF-8192-9A19FD7D4391}"/>
+    <hyperlink ref="B61" r:id="rId20" display="davidglezm2021@gmail.1" xr:uid="{54E36823-8EC7-42EF-BB91-1C4F22C1F46C}"/>
+    <hyperlink ref="B20" r:id="rId21" display="davidglezm2021@gmail.2" xr:uid="{6C9466AE-D0CF-4047-B139-1E3EE8491A41}"/>
+    <hyperlink ref="B34" r:id="rId22" display="davidglezm2021@gmail.2" xr:uid="{F185FC41-779E-4C11-8D16-502D4DF6F854}"/>
+    <hyperlink ref="B48" r:id="rId23" display="davidglezm2021@gmail.2" xr:uid="{3A73D489-36E3-4061-91EC-DB9A56C2A0B6}"/>
+    <hyperlink ref="B62" r:id="rId24" display="davidglezm2021@gmail.2" xr:uid="{5FDEACF8-5750-46AF-A096-7A3FEA69A65B}"/>
+    <hyperlink ref="B21" r:id="rId25" display="davidglezm2021@gmail.3" xr:uid="{E90F1137-5FDF-4600-9D52-C201A3F03048}"/>
+    <hyperlink ref="B35" r:id="rId26" display="davidglezm2021@gmail.3" xr:uid="{56EF5AAC-1939-43E9-A39D-B957A8113A2F}"/>
+    <hyperlink ref="B49" r:id="rId27" display="davidglezm2021@gmail.3" xr:uid="{DDE0256B-1180-4936-B611-2ADF0938ECCA}"/>
+    <hyperlink ref="B63" r:id="rId28" display="davidglezm2021@gmail.3" xr:uid="{1B9C7126-B9CC-4B35-B3C8-74FA6CAB4E9F}"/>
+    <hyperlink ref="B22" r:id="rId29" display="davidglezm2021@gmail.4" xr:uid="{2FE26CB1-5371-4A6C-9177-3A7F18726566}"/>
+    <hyperlink ref="B36" r:id="rId30" display="davidglezm2021@gmail.4" xr:uid="{B90E76BB-AA3F-454F-9987-8EF8C0A2C106}"/>
+    <hyperlink ref="B50" r:id="rId31" display="davidglezm2021@gmail.4" xr:uid="{02B5E3C9-D79B-4F35-A9F8-9530A48FB0F0}"/>
+    <hyperlink ref="B64" r:id="rId32" display="davidglezm2021@gmail.4" xr:uid="{366A141E-1F96-400A-BF98-945986ED97B9}"/>
+    <hyperlink ref="B23" r:id="rId33" display="davidglezm2021@gmail.1" xr:uid="{4D409D95-BEEA-4836-AA82-132287EB4968}"/>
+    <hyperlink ref="B37" r:id="rId34" display="davidglezm2021@gmail.1" xr:uid="{744DAF3F-6ACE-4721-BE76-3A8EC45ADF0B}"/>
+    <hyperlink ref="B51" r:id="rId35" display="davidglezm2021@gmail.1" xr:uid="{1F64131A-96F9-4F46-A617-4AAB97B5B9A5}"/>
+    <hyperlink ref="B65" r:id="rId36" display="davidglezm2021@gmail.1" xr:uid="{9913C97D-37B6-4CBE-B4EE-09C8FE4E4A34}"/>
+    <hyperlink ref="B27" r:id="rId37" display="davidglezm2021@gmail.1" xr:uid="{7887B343-4B6A-40E4-8624-AAEEF06D825B}"/>
+    <hyperlink ref="B41" r:id="rId38" display="davidglezm2021@gmail.1" xr:uid="{B7A4F1A7-7F69-44B0-A2FA-E68086BAEAE2}"/>
+    <hyperlink ref="B55" r:id="rId39" display="davidglezm2021@gmail.1" xr:uid="{293551EA-0FA4-45BF-9244-FB435E09E1A8}"/>
+    <hyperlink ref="B69" r:id="rId40" display="davidglezm2021@gmail.1" xr:uid="{0F982F76-897D-475E-B125-A998E0B7E7EE}"/>
+    <hyperlink ref="B31" r:id="rId41" display="davidglezm2021@gmail.1" xr:uid="{8CC9B24E-98F9-4D1A-8A2E-26B1AD9A096E}"/>
+    <hyperlink ref="B45" r:id="rId42" display="davidglezm2021@gmail.1" xr:uid="{395A4199-11E3-44A7-B7B8-CB368944D24B}"/>
+    <hyperlink ref="B59" r:id="rId43" display="davidglezm2021@gmail.1" xr:uid="{13553AF1-CE53-42C0-8DA4-D4BBC3C8915F}"/>
+    <hyperlink ref="B24" r:id="rId44" display="davidglezm2021@gmail.2" xr:uid="{A98E4A19-5B39-43AD-BAA0-ECEC4F8A018B}"/>
+    <hyperlink ref="B38" r:id="rId45" display="davidglezm2021@gmail.2" xr:uid="{C46AF19B-0BE9-4E30-A676-0C2D5BA8F515}"/>
+    <hyperlink ref="B52" r:id="rId46" display="davidglezm2021@gmail.2" xr:uid="{412789FF-442E-46CD-AFC9-47D1A4E50FA6}"/>
+    <hyperlink ref="B66" r:id="rId47" display="davidglezm2021@gmail.2" xr:uid="{EB9F44C2-DA41-41FE-8CB1-AE2F1A5A20DA}"/>
+    <hyperlink ref="B28" r:id="rId48" display="davidglezm2021@gmail.2" xr:uid="{79CBB5DD-FDA9-4D4E-9645-223B5CDD37A1}"/>
+    <hyperlink ref="B42" r:id="rId49" display="davidglezm2021@gmail.2" xr:uid="{E758921D-1D63-4302-B65E-3FAE4FFDEDF2}"/>
+    <hyperlink ref="B56" r:id="rId50" display="davidglezm2021@gmail.2" xr:uid="{F3042143-A3CC-43ED-A708-F91B530A420A}"/>
+    <hyperlink ref="B70" r:id="rId51" display="davidglezm2021@gmail.4" xr:uid="{ED01FDD6-E8AF-4AC6-8E4D-ADF36E009252}"/>
+    <hyperlink ref="B32" r:id="rId52" display="davidglezm2021@gmail.4" xr:uid="{EE43F0D7-C408-4AC9-BE77-8D787FEFFC33}"/>
+    <hyperlink ref="B46" r:id="rId53" display="davidglezm2021@gmail.4" xr:uid="{3E7326B3-6EBF-4E99-B329-355B47B1E50D}"/>
+    <hyperlink ref="B60" r:id="rId54" display="davidglezm2021@gmail.4" xr:uid="{7745577E-AEA1-453E-B36A-3F220B69442F}"/>
+    <hyperlink ref="B25" r:id="rId55" display="davidglezm2021@gmail.3" xr:uid="{80A4A8A2-A107-41CE-B694-05108F46BEBF}"/>
+    <hyperlink ref="B39" r:id="rId56" display="davidglezm2021@gmail.3" xr:uid="{EE401CED-F105-412F-8131-1B98A2D3674A}"/>
+    <hyperlink ref="B53" r:id="rId57" display="davidglezm2021@gmail.3" xr:uid="{08C36986-C658-4280-887B-494207D393D3}"/>
+    <hyperlink ref="B67" r:id="rId58" display="davidglezm2021@gmail.3" xr:uid="{CFCDBBA2-016F-4480-8DBF-59ED7CC1BC15}"/>
+    <hyperlink ref="B29" r:id="rId59" display="davidglezm2021@gmail.3" xr:uid="{FBE6D5F0-70C3-4B44-B0C9-FA8989543003}"/>
+    <hyperlink ref="B43" r:id="rId60" display="davidglezm2021@gmail.3" xr:uid="{09A8BB9A-8DB3-4AFA-9ACB-4C01C770EABB}"/>
+    <hyperlink ref="B57" r:id="rId61" display="davidglezm2021@gmail.3" xr:uid="{99D53C5F-9412-46FE-BEE0-C2D6EB906C89}"/>
+    <hyperlink ref="B26" r:id="rId62" display="davidglezm2021@gmail.4" xr:uid="{5593B6F4-D632-4B90-A4F9-FEF94AD8401A}"/>
+    <hyperlink ref="B40" r:id="rId63" display="davidglezm2021@gmail.4" xr:uid="{582AA4D0-B87E-4107-89EE-075AD55E1B4C}"/>
+    <hyperlink ref="B54" r:id="rId64" display="davidglezm2021@gmail.4" xr:uid="{90D3D27D-CBDE-4D44-B665-9714281F847B}"/>
+    <hyperlink ref="B68" r:id="rId65" display="davidglezm2021@gmail.4" xr:uid="{01D94FDD-6744-4D9A-9F6B-1E3FD8AE0D4D}"/>
+    <hyperlink ref="B30" r:id="rId66" display="davidglezm2021@gmail.4" xr:uid="{39EFB125-B8F0-49FB-ABB7-40FB03B6334E}"/>
+    <hyperlink ref="B44" r:id="rId67" display="davidglezm2021@gmail.4" xr:uid="{56DC46BF-D3F3-4A7F-8277-DD415989D2C4}"/>
+    <hyperlink ref="B58" r:id="rId68" display="davidglezm2021@gmail.4" xr:uid="{6F634F57-42C2-46BF-B10D-CDBD80C4C9E9}"/>
+    <hyperlink ref="B2" r:id="rId69" xr:uid="{5CA70BFB-DB32-47B7-A65F-5299CB504BEA}"/>
+    <hyperlink ref="B71" r:id="rId70" xr:uid="{23E2E0BD-58E6-4338-A023-FF9FD0B41637}"/>
+    <hyperlink ref="B72" r:id="rId71" xr:uid="{604DFC42-6AE4-455B-897E-010054D99C76}"/>
+    <hyperlink ref="B73" r:id="rId72" xr:uid="{89CC9B9B-C9C1-490E-81C9-791223C97920}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Emails.xlsx
+++ b/Data/Emails.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lobod\OneDrive\Documentos\Mailing-Python\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Mailing-Python\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15435DD1-BFC0-4F3F-BA87-6E7E6EE35CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3ED365-F8A8-49D3-B37F-9D0E83282A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -75,204 +75,6 @@
     <t>milton</t>
   </si>
   <si>
-    <t>davidglezm2021@gmail.4</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.3</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.2</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.1</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.5</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.6</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.7</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.8</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.9</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.10</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.11</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.12</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.13</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.14</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.15</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.16</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.17</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.18</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.19</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.20</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.21</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.22</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.23</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.24</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.25</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.26</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.27</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.28</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.29</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.30</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.31</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.32</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.33</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.34</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.35</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.36</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.37</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.38</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.39</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.40</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.41</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.42</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.43</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.44</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.45</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.46</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.47</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.48</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.49</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.50</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.51</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.52</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.53</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.54</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.55</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.56</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.57</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.58</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.59</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.60</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.61</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.62</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.63</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.64</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.65</t>
-  </si>
-  <si>
-    <t>davidglezm2021@gmail.66</t>
-  </si>
-  <si>
     <t>mio</t>
   </si>
   <si>
@@ -286,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +114,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -344,7 +154,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -357,6 +167,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -643,21 +454,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:E139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -671,7 +482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -685,7 +496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -699,12 +510,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -713,12 +524,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>19</v>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -727,12 +538,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>18</v>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -741,12 +552,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>17</v>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -755,12 +566,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -769,12 +580,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>20</v>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -783,12 +594,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>21</v>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -796,13 +607,14 @@
       <c r="D10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>22</v>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -811,12 +623,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>23</v>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -825,12 +637,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>24</v>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -839,12 +651,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>25</v>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -853,12 +665,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>26</v>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -867,12 +679,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>27</v>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -881,12 +693,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>28</v>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -895,12 +707,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>29</v>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
@@ -909,12 +721,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>30</v>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
@@ -923,12 +735,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>31</v>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
@@ -937,12 +749,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>32</v>
+      <c r="B21" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
@@ -951,12 +763,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>33</v>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
@@ -965,12 +777,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>34</v>
+      <c r="B23" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
@@ -979,12 +791,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>35</v>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
@@ -993,12 +805,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>21</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>36</v>
+      <c r="B25" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
@@ -1007,12 +819,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>22</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>37</v>
+      <c r="B26" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
@@ -1021,12 +833,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>23</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>38</v>
+      <c r="B27" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -1035,12 +847,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>39</v>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
@@ -1049,12 +861,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>25</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>40</v>
+      <c r="B29" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
@@ -1063,12 +875,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>26</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>41</v>
+      <c r="B30" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
@@ -1077,12 +889,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>27</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>42</v>
+      <c r="B31" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C31" t="s">
         <v>12</v>
@@ -1091,12 +903,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>28</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>43</v>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
@@ -1105,12 +917,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>29</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>44</v>
+      <c r="B33" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C33" t="s">
         <v>12</v>
@@ -1119,12 +931,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>30</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>45</v>
+      <c r="B34" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
@@ -1133,12 +945,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>31</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>46</v>
+      <c r="B35" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
@@ -1147,12 +959,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>32</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>47</v>
+      <c r="B36" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C36" t="s">
         <v>12</v>
@@ -1161,12 +973,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>33</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>48</v>
+      <c r="B37" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
@@ -1175,12 +987,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>34</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>49</v>
+      <c r="B38" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
@@ -1189,12 +1001,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>35</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>50</v>
+      <c r="B39" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
@@ -1203,12 +1015,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>36</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>51</v>
+      <c r="B40" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
@@ -1217,12 +1029,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>37</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>52</v>
+      <c r="B41" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
@@ -1231,12 +1043,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>38</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>53</v>
+      <c r="B42" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
@@ -1245,12 +1057,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>39</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>54</v>
+      <c r="B43" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
@@ -1259,12 +1071,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>40</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>55</v>
+      <c r="B44" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
@@ -1273,12 +1085,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>41</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>56</v>
+      <c r="B45" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
@@ -1287,12 +1099,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>42</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>57</v>
+      <c r="B46" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
@@ -1301,12 +1113,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>43</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>58</v>
+      <c r="B47" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
@@ -1315,12 +1127,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>44</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>59</v>
+      <c r="B48" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
@@ -1329,12 +1141,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>45</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>60</v>
+      <c r="B49" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C49" t="s">
         <v>12</v>
@@ -1343,12 +1155,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>46</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>61</v>
+      <c r="B50" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
@@ -1357,12 +1169,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>47</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>62</v>
+      <c r="B51" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C51" t="s">
         <v>12</v>
@@ -1371,12 +1183,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>48</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>63</v>
+      <c r="B52" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C52" t="s">
         <v>12</v>
@@ -1385,12 +1197,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>49</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>64</v>
+      <c r="B53" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C53" t="s">
         <v>12</v>
@@ -1399,12 +1211,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>50</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>65</v>
+      <c r="B54" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
@@ -1413,12 +1225,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>51</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>66</v>
+      <c r="B55" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
@@ -1427,12 +1239,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>52</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>67</v>
+      <c r="B56" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C56" t="s">
         <v>12</v>
@@ -1441,12 +1253,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>53</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>68</v>
+      <c r="B57" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
@@ -1455,12 +1267,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>54</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>69</v>
+      <c r="B58" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
@@ -1469,12 +1281,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>55</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>70</v>
+      <c r="B59" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C59" t="s">
         <v>12</v>
@@ -1483,12 +1295,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>56</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>71</v>
+      <c r="B60" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C60" t="s">
         <v>12</v>
@@ -1497,12 +1309,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>57</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>72</v>
+      <c r="B61" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C61" t="s">
         <v>12</v>
@@ -1511,12 +1323,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>58</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>73</v>
+      <c r="B62" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C62" t="s">
         <v>12</v>
@@ -1525,12 +1337,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>59</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>74</v>
+      <c r="B63" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C63" t="s">
         <v>12</v>
@@ -1539,12 +1351,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>60</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>75</v>
+      <c r="B64" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C64" t="s">
         <v>12</v>
@@ -1553,12 +1365,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>61</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>76</v>
+      <c r="B65" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C65" t="s">
         <v>12</v>
@@ -1567,12 +1379,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>62</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>77</v>
+      <c r="B66" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C66" t="s">
         <v>12</v>
@@ -1581,12 +1393,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>63</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>78</v>
+      <c r="B67" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C67" t="s">
         <v>12</v>
@@ -1595,12 +1407,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>64</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>79</v>
+      <c r="B68" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
@@ -1609,12 +1421,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>65</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>80</v>
+      <c r="B69" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C69" t="s">
         <v>12</v>
@@ -1623,12 +1435,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>66</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>81</v>
+      <c r="B70" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C70" t="s">
         <v>12</v>
@@ -1637,124 +1449,984 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>3</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>4</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>5</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>6</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="6"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>7</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>8</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>9</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>10</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>11</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>12</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>13</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>14</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>15</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>16</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>17</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>18</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>19</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>20</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>21</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>22</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>23</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>24</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>25</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>26</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>27</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>28</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>29</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>30</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>31</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>32</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>33</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>34</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>35</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>36</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>37</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>38</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>39</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>40</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>41</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>42</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>43</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>44</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>45</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>46</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>47</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>48</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>49</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>50</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>51</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>52</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>53</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>54</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>55</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>56</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>57</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>58</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>59</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>60</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>61</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>62</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>63</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>64</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>65</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>66</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C137" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D137" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B138" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C72" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>82</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C73" t="s">
-        <v>84</v>
-      </c>
-      <c r="D73" t="s">
-        <v>84</v>
+      <c r="C138" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>16</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139" t="s">
+        <v>18</v>
+      </c>
+      <c r="D139" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="harry.styles@outlook.com" xr:uid="{30F5F89E-EC37-4C40-96B3-C8BE048EF96F}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{93F092B7-131D-4CDB-A17D-6E5C5B597644}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{69BA6A04-5BD7-46CC-A6A5-A753556A1325}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{C92A3A7C-9251-4B88-8CC6-BACDEA649C28}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{F15B894D-15C3-42B9-9C5C-323D227602CD}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{77122F4E-A184-4656-A8E2-D6D76C8F3C0F}"/>
-    <hyperlink ref="B9" r:id="rId7" display="davidglezm2021@gmail.1" xr:uid="{E2426AE5-E5A9-42B5-934E-D4F9114F550C}"/>
-    <hyperlink ref="B13" r:id="rId8" display="davidglezm2021@gmail.1" xr:uid="{B569781B-F1EE-4524-9774-C5281B3BDFB0}"/>
-    <hyperlink ref="B17" r:id="rId9" display="davidglezm2021@gmail.1" xr:uid="{B3C39A40-0DEE-4D55-83FE-EAACC0C70997}"/>
-    <hyperlink ref="B10" r:id="rId10" display="davidglezm2021@gmail.2" xr:uid="{9EC392C8-2DDF-4C5C-8BD4-8661DAD173A9}"/>
-    <hyperlink ref="B14" r:id="rId11" display="davidglezm2021@gmail.2" xr:uid="{F0E37D36-24FA-4882-AD69-A18FFF7BDF0F}"/>
-    <hyperlink ref="B18" r:id="rId12" display="davidglezm2021@gmail.4" xr:uid="{5F92D7B4-754C-49F1-9605-548137A77BDF}"/>
-    <hyperlink ref="B11" r:id="rId13" display="davidglezm2021@gmail.3" xr:uid="{2E1E77E2-08BC-48A4-97D8-B6B3043B1E67}"/>
-    <hyperlink ref="B15" r:id="rId14" display="davidglezm2021@gmail.3" xr:uid="{5176DC45-F74F-4CB7-8460-AB1AB5A66132}"/>
-    <hyperlink ref="B12" r:id="rId15" display="davidglezm2021@gmail.4" xr:uid="{62553419-C564-4D6D-B8F5-59BE04261ED3}"/>
-    <hyperlink ref="B16" r:id="rId16" display="davidglezm2021@gmail.4" xr:uid="{E7E5D81C-1F04-41A7-BE0C-7456F1385D79}"/>
-    <hyperlink ref="B19" r:id="rId17" display="davidglezm2021@gmail.1" xr:uid="{17F6456E-634B-4039-850D-732AD2591C4D}"/>
-    <hyperlink ref="B33" r:id="rId18" display="davidglezm2021@gmail.1" xr:uid="{F66CE417-4D0D-47AC-9D6F-38508D951DD8}"/>
-    <hyperlink ref="B47" r:id="rId19" display="davidglezm2021@gmail.1" xr:uid="{731B272F-AD39-4FEF-8192-9A19FD7D4391}"/>
-    <hyperlink ref="B61" r:id="rId20" display="davidglezm2021@gmail.1" xr:uid="{54E36823-8EC7-42EF-BB91-1C4F22C1F46C}"/>
-    <hyperlink ref="B20" r:id="rId21" display="davidglezm2021@gmail.2" xr:uid="{6C9466AE-D0CF-4047-B139-1E3EE8491A41}"/>
-    <hyperlink ref="B34" r:id="rId22" display="davidglezm2021@gmail.2" xr:uid="{F185FC41-779E-4C11-8D16-502D4DF6F854}"/>
-    <hyperlink ref="B48" r:id="rId23" display="davidglezm2021@gmail.2" xr:uid="{3A73D489-36E3-4061-91EC-DB9A56C2A0B6}"/>
-    <hyperlink ref="B62" r:id="rId24" display="davidglezm2021@gmail.2" xr:uid="{5FDEACF8-5750-46AF-A096-7A3FEA69A65B}"/>
-    <hyperlink ref="B21" r:id="rId25" display="davidglezm2021@gmail.3" xr:uid="{E90F1137-5FDF-4600-9D52-C201A3F03048}"/>
-    <hyperlink ref="B35" r:id="rId26" display="davidglezm2021@gmail.3" xr:uid="{56EF5AAC-1939-43E9-A39D-B957A8113A2F}"/>
-    <hyperlink ref="B49" r:id="rId27" display="davidglezm2021@gmail.3" xr:uid="{DDE0256B-1180-4936-B611-2ADF0938ECCA}"/>
-    <hyperlink ref="B63" r:id="rId28" display="davidglezm2021@gmail.3" xr:uid="{1B9C7126-B9CC-4B35-B3C8-74FA6CAB4E9F}"/>
-    <hyperlink ref="B22" r:id="rId29" display="davidglezm2021@gmail.4" xr:uid="{2FE26CB1-5371-4A6C-9177-3A7F18726566}"/>
-    <hyperlink ref="B36" r:id="rId30" display="davidglezm2021@gmail.4" xr:uid="{B90E76BB-AA3F-454F-9987-8EF8C0A2C106}"/>
-    <hyperlink ref="B50" r:id="rId31" display="davidglezm2021@gmail.4" xr:uid="{02B5E3C9-D79B-4F35-A9F8-9530A48FB0F0}"/>
-    <hyperlink ref="B64" r:id="rId32" display="davidglezm2021@gmail.4" xr:uid="{366A141E-1F96-400A-BF98-945986ED97B9}"/>
-    <hyperlink ref="B23" r:id="rId33" display="davidglezm2021@gmail.1" xr:uid="{4D409D95-BEEA-4836-AA82-132287EB4968}"/>
-    <hyperlink ref="B37" r:id="rId34" display="davidglezm2021@gmail.1" xr:uid="{744DAF3F-6ACE-4721-BE76-3A8EC45ADF0B}"/>
-    <hyperlink ref="B51" r:id="rId35" display="davidglezm2021@gmail.1" xr:uid="{1F64131A-96F9-4F46-A617-4AAB97B5B9A5}"/>
-    <hyperlink ref="B65" r:id="rId36" display="davidglezm2021@gmail.1" xr:uid="{9913C97D-37B6-4CBE-B4EE-09C8FE4E4A34}"/>
-    <hyperlink ref="B27" r:id="rId37" display="davidglezm2021@gmail.1" xr:uid="{7887B343-4B6A-40E4-8624-AAEEF06D825B}"/>
-    <hyperlink ref="B41" r:id="rId38" display="davidglezm2021@gmail.1" xr:uid="{B7A4F1A7-7F69-44B0-A2FA-E68086BAEAE2}"/>
-    <hyperlink ref="B55" r:id="rId39" display="davidglezm2021@gmail.1" xr:uid="{293551EA-0FA4-45BF-9244-FB435E09E1A8}"/>
-    <hyperlink ref="B69" r:id="rId40" display="davidglezm2021@gmail.1" xr:uid="{0F982F76-897D-475E-B125-A998E0B7E7EE}"/>
-    <hyperlink ref="B31" r:id="rId41" display="davidglezm2021@gmail.1" xr:uid="{8CC9B24E-98F9-4D1A-8A2E-26B1AD9A096E}"/>
-    <hyperlink ref="B45" r:id="rId42" display="davidglezm2021@gmail.1" xr:uid="{395A4199-11E3-44A7-B7B8-CB368944D24B}"/>
-    <hyperlink ref="B59" r:id="rId43" display="davidglezm2021@gmail.1" xr:uid="{13553AF1-CE53-42C0-8DA4-D4BBC3C8915F}"/>
-    <hyperlink ref="B24" r:id="rId44" display="davidglezm2021@gmail.2" xr:uid="{A98E4A19-5B39-43AD-BAA0-ECEC4F8A018B}"/>
-    <hyperlink ref="B38" r:id="rId45" display="davidglezm2021@gmail.2" xr:uid="{C46AF19B-0BE9-4E30-A676-0C2D5BA8F515}"/>
-    <hyperlink ref="B52" r:id="rId46" display="davidglezm2021@gmail.2" xr:uid="{412789FF-442E-46CD-AFC9-47D1A4E50FA6}"/>
-    <hyperlink ref="B66" r:id="rId47" display="davidglezm2021@gmail.2" xr:uid="{EB9F44C2-DA41-41FE-8CB1-AE2F1A5A20DA}"/>
-    <hyperlink ref="B28" r:id="rId48" display="davidglezm2021@gmail.2" xr:uid="{79CBB5DD-FDA9-4D4E-9645-223B5CDD37A1}"/>
-    <hyperlink ref="B42" r:id="rId49" display="davidglezm2021@gmail.2" xr:uid="{E758921D-1D63-4302-B65E-3FAE4FFDEDF2}"/>
-    <hyperlink ref="B56" r:id="rId50" display="davidglezm2021@gmail.2" xr:uid="{F3042143-A3CC-43ED-A708-F91B530A420A}"/>
-    <hyperlink ref="B70" r:id="rId51" display="davidglezm2021@gmail.4" xr:uid="{ED01FDD6-E8AF-4AC6-8E4D-ADF36E009252}"/>
-    <hyperlink ref="B32" r:id="rId52" display="davidglezm2021@gmail.4" xr:uid="{EE43F0D7-C408-4AC9-BE77-8D787FEFFC33}"/>
-    <hyperlink ref="B46" r:id="rId53" display="davidglezm2021@gmail.4" xr:uid="{3E7326B3-6EBF-4E99-B329-355B47B1E50D}"/>
-    <hyperlink ref="B60" r:id="rId54" display="davidglezm2021@gmail.4" xr:uid="{7745577E-AEA1-453E-B36A-3F220B69442F}"/>
-    <hyperlink ref="B25" r:id="rId55" display="davidglezm2021@gmail.3" xr:uid="{80A4A8A2-A107-41CE-B694-05108F46BEBF}"/>
-    <hyperlink ref="B39" r:id="rId56" display="davidglezm2021@gmail.3" xr:uid="{EE401CED-F105-412F-8131-1B98A2D3674A}"/>
-    <hyperlink ref="B53" r:id="rId57" display="davidglezm2021@gmail.3" xr:uid="{08C36986-C658-4280-887B-494207D393D3}"/>
-    <hyperlink ref="B67" r:id="rId58" display="davidglezm2021@gmail.3" xr:uid="{CFCDBBA2-016F-4480-8DBF-59ED7CC1BC15}"/>
-    <hyperlink ref="B29" r:id="rId59" display="davidglezm2021@gmail.3" xr:uid="{FBE6D5F0-70C3-4B44-B0C9-FA8989543003}"/>
-    <hyperlink ref="B43" r:id="rId60" display="davidglezm2021@gmail.3" xr:uid="{09A8BB9A-8DB3-4AFA-9ACB-4C01C770EABB}"/>
-    <hyperlink ref="B57" r:id="rId61" display="davidglezm2021@gmail.3" xr:uid="{99D53C5F-9412-46FE-BEE0-C2D6EB906C89}"/>
-    <hyperlink ref="B26" r:id="rId62" display="davidglezm2021@gmail.4" xr:uid="{5593B6F4-D632-4B90-A4F9-FEF94AD8401A}"/>
-    <hyperlink ref="B40" r:id="rId63" display="davidglezm2021@gmail.4" xr:uid="{582AA4D0-B87E-4107-89EE-075AD55E1B4C}"/>
-    <hyperlink ref="B54" r:id="rId64" display="davidglezm2021@gmail.4" xr:uid="{90D3D27D-CBDE-4D44-B665-9714281F847B}"/>
-    <hyperlink ref="B68" r:id="rId65" display="davidglezm2021@gmail.4" xr:uid="{01D94FDD-6744-4D9A-9F6B-1E3FD8AE0D4D}"/>
-    <hyperlink ref="B30" r:id="rId66" display="davidglezm2021@gmail.4" xr:uid="{39EFB125-B8F0-49FB-ABB7-40FB03B6334E}"/>
-    <hyperlink ref="B44" r:id="rId67" display="davidglezm2021@gmail.4" xr:uid="{56DC46BF-D3F3-4A7F-8277-DD415989D2C4}"/>
-    <hyperlink ref="B58" r:id="rId68" display="davidglezm2021@gmail.4" xr:uid="{6F634F57-42C2-46BF-B10D-CDBD80C4C9E9}"/>
-    <hyperlink ref="B2" r:id="rId69" xr:uid="{5CA70BFB-DB32-47B7-A65F-5299CB504BEA}"/>
-    <hyperlink ref="B71" r:id="rId70" xr:uid="{23E2E0BD-58E6-4338-A023-FF9FD0B41637}"/>
-    <hyperlink ref="B72" r:id="rId71" xr:uid="{604DFC42-6AE4-455B-897E-010054D99C76}"/>
-    <hyperlink ref="B73" r:id="rId72" xr:uid="{89CC9B9B-C9C1-490E-81C9-791223C97920}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{5CA70BFB-DB32-47B7-A65F-5299CB504BEA}"/>
+    <hyperlink ref="B137" r:id="rId2" xr:uid="{23E2E0BD-58E6-4338-A023-FF9FD0B41637}"/>
+    <hyperlink ref="B138" r:id="rId3" xr:uid="{604DFC42-6AE4-455B-897E-010054D99C76}"/>
+    <hyperlink ref="B139" r:id="rId4" xr:uid="{89CC9B9B-C9C1-490E-81C9-791223C97920}"/>
+    <hyperlink ref="B3:B136" r:id="rId5" display="soporte@despachoatm.com" xr:uid="{D45060E5-008F-4493-94D8-0043756BB8E3}"/>
+    <hyperlink ref="B5:B70" r:id="rId6" display="soporte@despachoatm.com" xr:uid="{C73E16DB-C12C-4BDE-A23C-7F20E44A66C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
--- a/Data/Emails.xlsx
+++ b/Data/Emails.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Mailing-Python\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lobod\OneDrive\Documentos\Mailing-Python\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3ED365-F8A8-49D3-B37F-9D0E83282A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34F87DF-AE34-417F-ACF6-31CA0C5B0107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -88,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,14 +114,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -154,7 +146,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -167,7 +159,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -454,21 +445,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E139"/>
+  <dimension ref="A1:D450"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD70"/>
+    <sheetView tabSelected="1" topLeftCell="A427" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="F447" sqref="F447"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -482,7 +473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -496,7 +487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -510,7 +501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -524,26 +515,26 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -552,26 +543,26 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -580,12 +571,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -594,12 +585,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -607,14 +598,13 @@
       <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -623,12 +613,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -637,12 +627,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>9</v>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -651,12 +641,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>9</v>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -665,12 +655,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>9</v>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -679,12 +669,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>12</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>9</v>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -693,12 +683,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>13</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>9</v>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -707,12 +697,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>14</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>9</v>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
@@ -721,12 +711,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>15</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>9</v>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
@@ -735,12 +725,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>16</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>9</v>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
@@ -749,12 +739,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>17</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>9</v>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
@@ -763,12 +753,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>18</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>9</v>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
@@ -777,12 +767,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>19</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>9</v>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
@@ -791,12 +781,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>20</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>9</v>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
@@ -805,12 +795,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>21</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>9</v>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
@@ -819,12 +809,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>22</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>9</v>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
@@ -833,12 +823,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>23</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>9</v>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -847,12 +837,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>24</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>9</v>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
@@ -861,12 +851,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>25</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>9</v>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
@@ -875,12 +865,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>26</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>9</v>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
@@ -889,12 +879,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>27</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>9</v>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C31" t="s">
         <v>12</v>
@@ -903,12 +893,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>28</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>9</v>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
@@ -917,12 +907,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>29</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>9</v>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C33" t="s">
         <v>12</v>
@@ -931,12 +921,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>30</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>9</v>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
@@ -945,12 +935,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>31</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>9</v>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
@@ -959,12 +949,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>32</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>9</v>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C36" t="s">
         <v>12</v>
@@ -973,12 +963,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>33</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>9</v>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
@@ -987,12 +977,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>34</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>9</v>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
@@ -1001,12 +991,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>35</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>9</v>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
@@ -1015,12 +1005,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>36</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>9</v>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
@@ -1029,12 +1019,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>37</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>9</v>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
@@ -1043,12 +1033,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>38</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>9</v>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
@@ -1057,12 +1047,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>39</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>9</v>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
@@ -1071,12 +1061,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>40</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>9</v>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
@@ -1085,12 +1075,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>41</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>9</v>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
@@ -1099,12 +1089,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>42</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>9</v>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
@@ -1113,12 +1103,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>43</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>9</v>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
@@ -1127,12 +1117,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>44</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>9</v>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
@@ -1141,12 +1131,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>45</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>9</v>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C49" t="s">
         <v>12</v>
@@ -1155,12 +1145,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>46</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>9</v>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
@@ -1169,12 +1159,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>47</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>9</v>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C51" t="s">
         <v>12</v>
@@ -1183,12 +1173,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>48</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>9</v>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C52" t="s">
         <v>12</v>
@@ -1197,12 +1187,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>49</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>9</v>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C53" t="s">
         <v>12</v>
@@ -1211,12 +1201,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>50</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>9</v>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
@@ -1225,12 +1215,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>51</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>9</v>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
@@ -1239,12 +1229,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>52</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>9</v>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C56" t="s">
         <v>12</v>
@@ -1253,12 +1243,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>53</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>9</v>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
@@ -1267,12 +1257,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>54</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>9</v>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
@@ -1281,12 +1271,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>55</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>9</v>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C59" t="s">
         <v>12</v>
@@ -1295,12 +1285,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>56</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>9</v>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C60" t="s">
         <v>12</v>
@@ -1309,12 +1299,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>57</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>9</v>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C61" t="s">
         <v>12</v>
@@ -1323,12 +1313,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>58</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>9</v>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C62" t="s">
         <v>12</v>
@@ -1337,12 +1327,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>59</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>9</v>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C63" t="s">
         <v>12</v>
@@ -1351,12 +1341,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>60</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>9</v>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C64" t="s">
         <v>12</v>
@@ -1365,12 +1355,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>61</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>9</v>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C65" t="s">
         <v>12</v>
@@ -1379,12 +1369,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>62</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>9</v>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C66" t="s">
         <v>12</v>
@@ -1393,12 +1383,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>63</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>9</v>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C67" t="s">
         <v>12</v>
@@ -1407,12 +1397,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>64</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>9</v>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
@@ -1421,12 +1411,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>65</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>9</v>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C69" t="s">
         <v>12</v>
@@ -1435,12 +1425,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>66</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>9</v>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C70" t="s">
         <v>12</v>
@@ -1449,12 +1439,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>1</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>9</v>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C71" t="s">
         <v>12</v>
@@ -1463,12 +1453,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>2</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>9</v>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C72" t="s">
         <v>12</v>
@@ -1477,12 +1467,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>3</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>9</v>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C73" t="s">
         <v>12</v>
@@ -1491,12 +1481,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>4</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>9</v>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
@@ -1505,12 +1495,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>5</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>9</v>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
@@ -1519,12 +1509,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>6</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>9</v>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C76" t="s">
         <v>12</v>
@@ -1532,14 +1522,13 @@
       <c r="D76" t="s">
         <v>13</v>
       </c>
-      <c r="E76" s="6"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>7</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>9</v>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C77" t="s">
         <v>12</v>
@@ -1548,12 +1537,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>8</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>9</v>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C78" t="s">
         <v>12</v>
@@ -1562,12 +1551,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>9</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>9</v>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C79" t="s">
         <v>12</v>
@@ -1576,12 +1565,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>10</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>9</v>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C80" t="s">
         <v>12</v>
@@ -1590,12 +1579,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>11</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>9</v>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
@@ -1604,12 +1593,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>12</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>9</v>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C82" t="s">
         <v>12</v>
@@ -1618,12 +1607,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>13</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>9</v>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C83" t="s">
         <v>12</v>
@@ -1632,12 +1621,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>14</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>9</v>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C84" t="s">
         <v>12</v>
@@ -1646,12 +1635,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>15</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>9</v>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C85" t="s">
         <v>12</v>
@@ -1660,12 +1649,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>16</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>9</v>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C86" t="s">
         <v>12</v>
@@ -1674,12 +1663,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>17</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>9</v>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C87" t="s">
         <v>12</v>
@@ -1688,12 +1677,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>18</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>9</v>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C88" t="s">
         <v>12</v>
@@ -1702,12 +1691,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>19</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>9</v>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C89" t="s">
         <v>12</v>
@@ -1716,12 +1705,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>20</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>9</v>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C90" t="s">
         <v>12</v>
@@ -1730,12 +1719,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>21</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>9</v>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C91" t="s">
         <v>12</v>
@@ -1744,12 +1733,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>22</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>9</v>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C92" t="s">
         <v>12</v>
@@ -1758,12 +1747,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>23</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>9</v>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C93" t="s">
         <v>12</v>
@@ -1772,12 +1761,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>24</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>9</v>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C94" t="s">
         <v>12</v>
@@ -1786,12 +1775,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>25</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>9</v>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C95" t="s">
         <v>12</v>
@@ -1800,12 +1789,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>26</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>9</v>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C96" t="s">
         <v>12</v>
@@ -1814,12 +1803,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>27</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>9</v>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C97" t="s">
         <v>12</v>
@@ -1828,12 +1817,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>28</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>9</v>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C98" t="s">
         <v>12</v>
@@ -1842,12 +1831,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>29</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>9</v>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C99" t="s">
         <v>12</v>
@@ -1856,12 +1845,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>30</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>9</v>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C100" t="s">
         <v>12</v>
@@ -1870,12 +1859,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>31</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>9</v>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C101" t="s">
         <v>12</v>
@@ -1884,12 +1873,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>32</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>9</v>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C102" t="s">
         <v>12</v>
@@ -1898,12 +1887,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>33</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>9</v>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C103" t="s">
         <v>12</v>
@@ -1912,12 +1901,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>34</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>9</v>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C104" t="s">
         <v>12</v>
@@ -1926,12 +1915,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>35</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>9</v>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C105" t="s">
         <v>12</v>
@@ -1940,12 +1929,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>36</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>9</v>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C106" t="s">
         <v>12</v>
@@ -1954,12 +1943,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>37</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>9</v>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C107" t="s">
         <v>12</v>
@@ -1968,12 +1957,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>38</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>9</v>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C108" t="s">
         <v>12</v>
@@ -1982,12 +1971,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>39</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>9</v>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C109" t="s">
         <v>12</v>
@@ -1996,12 +1985,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>40</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>9</v>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C110" t="s">
         <v>12</v>
@@ -2010,12 +1999,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>41</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>9</v>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>10</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C111" t="s">
         <v>12</v>
@@ -2024,12 +2013,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>42</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>9</v>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C112" t="s">
         <v>12</v>
@@ -2038,12 +2027,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>43</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>9</v>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C113" t="s">
         <v>12</v>
@@ -2052,12 +2041,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>44</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>9</v>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C114" t="s">
         <v>12</v>
@@ -2066,12 +2055,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>45</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>9</v>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C115" t="s">
         <v>12</v>
@@ -2080,12 +2069,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>46</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>9</v>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C116" t="s">
         <v>12</v>
@@ -2094,12 +2083,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>47</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>9</v>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C117" t="s">
         <v>12</v>
@@ -2108,12 +2097,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>48</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>9</v>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C118" t="s">
         <v>12</v>
@@ -2122,12 +2111,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>49</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>9</v>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>10</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C119" t="s">
         <v>12</v>
@@ -2136,12 +2125,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>50</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>9</v>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>10</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C120" t="s">
         <v>12</v>
@@ -2150,12 +2139,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>51</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>9</v>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>10</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C121" t="s">
         <v>12</v>
@@ -2164,12 +2153,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>52</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>9</v>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C122" t="s">
         <v>12</v>
@@ -2178,12 +2167,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>53</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>9</v>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C123" t="s">
         <v>12</v>
@@ -2192,12 +2181,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>54</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>9</v>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C124" t="s">
         <v>12</v>
@@ -2206,12 +2195,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>55</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>9</v>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C125" t="s">
         <v>12</v>
@@ -2220,12 +2209,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>56</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>9</v>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C126" t="s">
         <v>12</v>
@@ -2234,12 +2223,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>57</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>9</v>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C127" t="s">
         <v>12</v>
@@ -2248,12 +2237,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>58</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>9</v>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>10</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C128" t="s">
         <v>12</v>
@@ -2262,12 +2251,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>59</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>9</v>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C129" t="s">
         <v>12</v>
@@ -2276,12 +2265,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>60</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>9</v>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>10</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C130" t="s">
         <v>12</v>
@@ -2290,12 +2279,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>61</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>9</v>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>10</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C131" t="s">
         <v>12</v>
@@ -2304,12 +2293,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>62</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>9</v>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>10</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C132" t="s">
         <v>12</v>
@@ -2318,12 +2307,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>63</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>9</v>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>10</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C133" t="s">
         <v>12</v>
@@ -2332,12 +2321,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>64</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>9</v>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>10</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C134" t="s">
         <v>12</v>
@@ -2346,12 +2335,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>65</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>9</v>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>10</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C135" t="s">
         <v>12</v>
@@ -2360,12 +2349,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>66</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>9</v>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>10</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C136" t="s">
         <v>12</v>
@@ -2374,21 +2363,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>10</v>
       </c>
@@ -2402,31 +2391,4828 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C139" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D139" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>10</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>10</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>10</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>10</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>10</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>10</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>10</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>10</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>10</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>10</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>10</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>10</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>10</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>10</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>10</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>10</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>10</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>10</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>10</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>10</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>10</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>10</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>10</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>10</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>10</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>10</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>10</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C170" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>10</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C171" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>10</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>10</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173" t="s">
+        <v>12</v>
+      </c>
+      <c r="D173" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>10</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>10</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C175" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>10</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176" t="s">
+        <v>12</v>
+      </c>
+      <c r="D176" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>10</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177" t="s">
+        <v>12</v>
+      </c>
+      <c r="D177" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>10</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>10</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C179" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>10</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>10</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>10</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C182" t="s">
+        <v>12</v>
+      </c>
+      <c r="D182" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>10</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C183" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>10</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C184" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>10</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C185" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>10</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C186" t="s">
+        <v>12</v>
+      </c>
+      <c r="D186" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>10</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C187" t="s">
+        <v>12</v>
+      </c>
+      <c r="D187" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>10</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C188" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>10</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C189" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>10</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>10</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C191" t="s">
+        <v>12</v>
+      </c>
+      <c r="D191" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>10</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C192" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>10</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C193" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>10</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C194" t="s">
+        <v>12</v>
+      </c>
+      <c r="D194" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>10</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C195" t="s">
+        <v>12</v>
+      </c>
+      <c r="D195" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>10</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196" t="s">
+        <v>12</v>
+      </c>
+      <c r="D196" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>10</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C197" t="s">
+        <v>12</v>
+      </c>
+      <c r="D197" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>10</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C198" t="s">
+        <v>12</v>
+      </c>
+      <c r="D198" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>10</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C199" t="s">
+        <v>12</v>
+      </c>
+      <c r="D199" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>10</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C200" t="s">
+        <v>12</v>
+      </c>
+      <c r="D200" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>10</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C201" t="s">
+        <v>12</v>
+      </c>
+      <c r="D201" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>10</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C202" t="s">
+        <v>12</v>
+      </c>
+      <c r="D202" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>10</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C203" t="s">
+        <v>12</v>
+      </c>
+      <c r="D203" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>10</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C204" t="s">
+        <v>12</v>
+      </c>
+      <c r="D204" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>10</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C205" t="s">
+        <v>12</v>
+      </c>
+      <c r="D205" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>10</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C206" t="s">
+        <v>12</v>
+      </c>
+      <c r="D206" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>10</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C207" t="s">
+        <v>12</v>
+      </c>
+      <c r="D207" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>10</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C208" t="s">
+        <v>12</v>
+      </c>
+      <c r="D208" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>10</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C209" t="s">
+        <v>12</v>
+      </c>
+      <c r="D209" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>10</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C210" t="s">
+        <v>12</v>
+      </c>
+      <c r="D210" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>10</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C211" t="s">
+        <v>12</v>
+      </c>
+      <c r="D211" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>10</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C212" t="s">
+        <v>12</v>
+      </c>
+      <c r="D212" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>10</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C213" t="s">
+        <v>12</v>
+      </c>
+      <c r="D213" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>10</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C214" t="s">
+        <v>12</v>
+      </c>
+      <c r="D214" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>10</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C215" t="s">
+        <v>12</v>
+      </c>
+      <c r="D215" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>10</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C216" t="s">
+        <v>12</v>
+      </c>
+      <c r="D216" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>10</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C217" t="s">
+        <v>12</v>
+      </c>
+      <c r="D217" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>10</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C218" t="s">
+        <v>12</v>
+      </c>
+      <c r="D218" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>10</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C219" t="s">
+        <v>12</v>
+      </c>
+      <c r="D219" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>10</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C220" t="s">
+        <v>12</v>
+      </c>
+      <c r="D220" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>10</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C221" t="s">
+        <v>12</v>
+      </c>
+      <c r="D221" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>10</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C222" t="s">
+        <v>12</v>
+      </c>
+      <c r="D222" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>10</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C223" t="s">
+        <v>12</v>
+      </c>
+      <c r="D223" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>10</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C224" t="s">
+        <v>12</v>
+      </c>
+      <c r="D224" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>10</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C225" t="s">
+        <v>12</v>
+      </c>
+      <c r="D225" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>10</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C226" t="s">
+        <v>12</v>
+      </c>
+      <c r="D226" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>10</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C227" t="s">
+        <v>12</v>
+      </c>
+      <c r="D227" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>10</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C228" t="s">
+        <v>12</v>
+      </c>
+      <c r="D228" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>10</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C229" t="s">
+        <v>12</v>
+      </c>
+      <c r="D229" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>10</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C230" t="s">
+        <v>12</v>
+      </c>
+      <c r="D230" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>10</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C231" t="s">
+        <v>12</v>
+      </c>
+      <c r="D231" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>10</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C232" t="s">
+        <v>12</v>
+      </c>
+      <c r="D232" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>10</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C233" t="s">
+        <v>12</v>
+      </c>
+      <c r="D233" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>10</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C234" t="s">
+        <v>12</v>
+      </c>
+      <c r="D234" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>10</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C235" t="s">
+        <v>12</v>
+      </c>
+      <c r="D235" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>10</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C236" t="s">
+        <v>12</v>
+      </c>
+      <c r="D236" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>10</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C237" t="s">
+        <v>12</v>
+      </c>
+      <c r="D237" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>10</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C238" t="s">
+        <v>12</v>
+      </c>
+      <c r="D238" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>10</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C239" t="s">
+        <v>12</v>
+      </c>
+      <c r="D239" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>10</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C240" t="s">
+        <v>12</v>
+      </c>
+      <c r="D240" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>10</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C241" t="s">
+        <v>12</v>
+      </c>
+      <c r="D241" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>10</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C242" t="s">
+        <v>12</v>
+      </c>
+      <c r="D242" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>10</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C243" t="s">
+        <v>12</v>
+      </c>
+      <c r="D243" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>10</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C244" t="s">
+        <v>12</v>
+      </c>
+      <c r="D244" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>10</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C245" t="s">
+        <v>12</v>
+      </c>
+      <c r="D245" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>10</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C246" t="s">
+        <v>12</v>
+      </c>
+      <c r="D246" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>10</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C247" t="s">
+        <v>12</v>
+      </c>
+      <c r="D247" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>10</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C248" t="s">
+        <v>12</v>
+      </c>
+      <c r="D248" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>10</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C249" t="s">
+        <v>12</v>
+      </c>
+      <c r="D249" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>10</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C250" t="s">
+        <v>12</v>
+      </c>
+      <c r="D250" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>10</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C251" t="s">
+        <v>12</v>
+      </c>
+      <c r="D251" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>10</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C252" t="s">
+        <v>12</v>
+      </c>
+      <c r="D252" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>10</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C253" t="s">
+        <v>12</v>
+      </c>
+      <c r="D253" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>10</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C254" t="s">
+        <v>12</v>
+      </c>
+      <c r="D254" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>10</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C255" t="s">
+        <v>12</v>
+      </c>
+      <c r="D255" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>10</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C256" t="s">
+        <v>12</v>
+      </c>
+      <c r="D256" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>10</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C257" t="s">
+        <v>12</v>
+      </c>
+      <c r="D257" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>10</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C258" t="s">
+        <v>12</v>
+      </c>
+      <c r="D258" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>10</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C259" t="s">
+        <v>12</v>
+      </c>
+      <c r="D259" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>10</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C260" t="s">
+        <v>12</v>
+      </c>
+      <c r="D260" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>10</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C261" t="s">
+        <v>12</v>
+      </c>
+      <c r="D261" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>10</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C262" t="s">
+        <v>12</v>
+      </c>
+      <c r="D262" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>10</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C263" t="s">
+        <v>12</v>
+      </c>
+      <c r="D263" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>10</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C264" t="s">
+        <v>12</v>
+      </c>
+      <c r="D264" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>10</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C265" t="s">
+        <v>12</v>
+      </c>
+      <c r="D265" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>10</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C266" t="s">
+        <v>12</v>
+      </c>
+      <c r="D266" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>10</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C267" t="s">
+        <v>12</v>
+      </c>
+      <c r="D267" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>10</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C268" t="s">
+        <v>12</v>
+      </c>
+      <c r="D268" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>10</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C269" t="s">
+        <v>12</v>
+      </c>
+      <c r="D269" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>10</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C270" t="s">
+        <v>12</v>
+      </c>
+      <c r="D270" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>10</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C271" t="s">
+        <v>12</v>
+      </c>
+      <c r="D271" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>10</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C272" t="s">
+        <v>12</v>
+      </c>
+      <c r="D272" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>10</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C273" t="s">
+        <v>12</v>
+      </c>
+      <c r="D273" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>10</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C274" t="s">
+        <v>12</v>
+      </c>
+      <c r="D274" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>10</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C275" t="s">
+        <v>12</v>
+      </c>
+      <c r="D275" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>10</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C276" t="s">
+        <v>12</v>
+      </c>
+      <c r="D276" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>10</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C277" t="s">
+        <v>12</v>
+      </c>
+      <c r="D277" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>10</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C278" t="s">
+        <v>12</v>
+      </c>
+      <c r="D278" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>10</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C279" t="s">
+        <v>12</v>
+      </c>
+      <c r="D279" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>10</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C280" t="s">
+        <v>12</v>
+      </c>
+      <c r="D280" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>10</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C281" t="s">
+        <v>12</v>
+      </c>
+      <c r="D281" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>10</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C282" t="s">
+        <v>12</v>
+      </c>
+      <c r="D282" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>10</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C283" t="s">
+        <v>12</v>
+      </c>
+      <c r="D283" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>10</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C284" t="s">
+        <v>12</v>
+      </c>
+      <c r="D284" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>10</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C285" t="s">
+        <v>12</v>
+      </c>
+      <c r="D285" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>10</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C286" t="s">
+        <v>12</v>
+      </c>
+      <c r="D286" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>10</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C287" t="s">
+        <v>12</v>
+      </c>
+      <c r="D287" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>10</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C288" t="s">
+        <v>12</v>
+      </c>
+      <c r="D288" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>10</v>
+      </c>
+      <c r="B289" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C289" t="s">
+        <v>12</v>
+      </c>
+      <c r="D289" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>10</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C290" t="s">
+        <v>12</v>
+      </c>
+      <c r="D290" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>10</v>
+      </c>
+      <c r="B291" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C291" t="s">
+        <v>12</v>
+      </c>
+      <c r="D291" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>10</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C292" t="s">
+        <v>12</v>
+      </c>
+      <c r="D292" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>10</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C293" t="s">
+        <v>12</v>
+      </c>
+      <c r="D293" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>10</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C294" t="s">
+        <v>12</v>
+      </c>
+      <c r="D294" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>10</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C295" t="s">
+        <v>12</v>
+      </c>
+      <c r="D295" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>10</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C296" t="s">
+        <v>12</v>
+      </c>
+      <c r="D296" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>10</v>
+      </c>
+      <c r="B297" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C297" t="s">
+        <v>12</v>
+      </c>
+      <c r="D297" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>10</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C298" t="s">
+        <v>12</v>
+      </c>
+      <c r="D298" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>10</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C299" t="s">
+        <v>12</v>
+      </c>
+      <c r="D299" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>10</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C300" t="s">
+        <v>12</v>
+      </c>
+      <c r="D300" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>10</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C301" t="s">
+        <v>12</v>
+      </c>
+      <c r="D301" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>10</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C302" t="s">
+        <v>12</v>
+      </c>
+      <c r="D302" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>10</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C303" t="s">
+        <v>12</v>
+      </c>
+      <c r="D303" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>10</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C304" t="s">
+        <v>12</v>
+      </c>
+      <c r="D304" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>10</v>
+      </c>
+      <c r="B305" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C305" t="s">
+        <v>12</v>
+      </c>
+      <c r="D305" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>10</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C306" t="s">
+        <v>12</v>
+      </c>
+      <c r="D306" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>10</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C307" t="s">
+        <v>12</v>
+      </c>
+      <c r="D307" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>10</v>
+      </c>
+      <c r="B308" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C308" t="s">
+        <v>12</v>
+      </c>
+      <c r="D308" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>10</v>
+      </c>
+      <c r="B309" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C309" t="s">
+        <v>12</v>
+      </c>
+      <c r="D309" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>10</v>
+      </c>
+      <c r="B310" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C310" t="s">
+        <v>12</v>
+      </c>
+      <c r="D310" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>10</v>
+      </c>
+      <c r="B311" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C311" t="s">
+        <v>12</v>
+      </c>
+      <c r="D311" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>10</v>
+      </c>
+      <c r="B312" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C312" t="s">
+        <v>12</v>
+      </c>
+      <c r="D312" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>10</v>
+      </c>
+      <c r="B313" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C313" t="s">
+        <v>12</v>
+      </c>
+      <c r="D313" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>10</v>
+      </c>
+      <c r="B314" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C314" t="s">
+        <v>12</v>
+      </c>
+      <c r="D314" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>10</v>
+      </c>
+      <c r="B315" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C315" t="s">
+        <v>12</v>
+      </c>
+      <c r="D315" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>10</v>
+      </c>
+      <c r="B316" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C316" t="s">
+        <v>12</v>
+      </c>
+      <c r="D316" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>10</v>
+      </c>
+      <c r="B317" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C317" t="s">
+        <v>12</v>
+      </c>
+      <c r="D317" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>10</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C318" t="s">
+        <v>12</v>
+      </c>
+      <c r="D318" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>10</v>
+      </c>
+      <c r="B319" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C319" t="s">
+        <v>12</v>
+      </c>
+      <c r="D319" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>10</v>
+      </c>
+      <c r="B320" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C320" t="s">
+        <v>12</v>
+      </c>
+      <c r="D320" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>10</v>
+      </c>
+      <c r="B321" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C321" t="s">
+        <v>12</v>
+      </c>
+      <c r="D321" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>10</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C322" t="s">
+        <v>12</v>
+      </c>
+      <c r="D322" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>10</v>
+      </c>
+      <c r="B323" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C323" t="s">
+        <v>12</v>
+      </c>
+      <c r="D323" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>10</v>
+      </c>
+      <c r="B324" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C324" t="s">
+        <v>12</v>
+      </c>
+      <c r="D324" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>10</v>
+      </c>
+      <c r="B325" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C325" t="s">
+        <v>12</v>
+      </c>
+      <c r="D325" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>10</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C326" t="s">
+        <v>12</v>
+      </c>
+      <c r="D326" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>10</v>
+      </c>
+      <c r="B327" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C327" t="s">
+        <v>12</v>
+      </c>
+      <c r="D327" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>10</v>
+      </c>
+      <c r="B328" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C328" t="s">
+        <v>12</v>
+      </c>
+      <c r="D328" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>10</v>
+      </c>
+      <c r="B329" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C329" t="s">
+        <v>12</v>
+      </c>
+      <c r="D329" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>10</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C330" t="s">
+        <v>12</v>
+      </c>
+      <c r="D330" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>10</v>
+      </c>
+      <c r="B331" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C331" t="s">
+        <v>12</v>
+      </c>
+      <c r="D331" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>10</v>
+      </c>
+      <c r="B332" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C332" t="s">
+        <v>12</v>
+      </c>
+      <c r="D332" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>10</v>
+      </c>
+      <c r="B333" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C333" t="s">
+        <v>12</v>
+      </c>
+      <c r="D333" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>10</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C334" t="s">
+        <v>12</v>
+      </c>
+      <c r="D334" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>10</v>
+      </c>
+      <c r="B335" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C335" t="s">
+        <v>12</v>
+      </c>
+      <c r="D335" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>10</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C336" t="s">
+        <v>12</v>
+      </c>
+      <c r="D336" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>10</v>
+      </c>
+      <c r="B337" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C337" t="s">
+        <v>12</v>
+      </c>
+      <c r="D337" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>10</v>
+      </c>
+      <c r="B338" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C338" t="s">
+        <v>12</v>
+      </c>
+      <c r="D338" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>10</v>
+      </c>
+      <c r="B339" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C339" t="s">
+        <v>12</v>
+      </c>
+      <c r="D339" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>10</v>
+      </c>
+      <c r="B340" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C340" t="s">
+        <v>12</v>
+      </c>
+      <c r="D340" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>10</v>
+      </c>
+      <c r="B341" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C341" t="s">
+        <v>12</v>
+      </c>
+      <c r="D341" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>10</v>
+      </c>
+      <c r="B342" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C342" t="s">
+        <v>12</v>
+      </c>
+      <c r="D342" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>10</v>
+      </c>
+      <c r="B343" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C343" t="s">
+        <v>12</v>
+      </c>
+      <c r="D343" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>10</v>
+      </c>
+      <c r="B344" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C344" t="s">
+        <v>12</v>
+      </c>
+      <c r="D344" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>10</v>
+      </c>
+      <c r="B345" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C345" t="s">
+        <v>12</v>
+      </c>
+      <c r="D345" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>10</v>
+      </c>
+      <c r="B346" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C346" t="s">
+        <v>12</v>
+      </c>
+      <c r="D346" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>10</v>
+      </c>
+      <c r="B347" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C347" t="s">
+        <v>12</v>
+      </c>
+      <c r="D347" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>10</v>
+      </c>
+      <c r="B348" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C348" t="s">
+        <v>12</v>
+      </c>
+      <c r="D348" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>10</v>
+      </c>
+      <c r="B349" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C349" t="s">
+        <v>12</v>
+      </c>
+      <c r="D349" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>10</v>
+      </c>
+      <c r="B350" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C350" t="s">
+        <v>12</v>
+      </c>
+      <c r="D350" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>10</v>
+      </c>
+      <c r="B351" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C351" t="s">
+        <v>12</v>
+      </c>
+      <c r="D351" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>10</v>
+      </c>
+      <c r="B352" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C352" t="s">
+        <v>12</v>
+      </c>
+      <c r="D352" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>10</v>
+      </c>
+      <c r="B353" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C353" t="s">
+        <v>12</v>
+      </c>
+      <c r="D353" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>10</v>
+      </c>
+      <c r="B354" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C354" t="s">
+        <v>12</v>
+      </c>
+      <c r="D354" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>10</v>
+      </c>
+      <c r="B355" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C355" t="s">
+        <v>12</v>
+      </c>
+      <c r="D355" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>10</v>
+      </c>
+      <c r="B356" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C356" t="s">
+        <v>12</v>
+      </c>
+      <c r="D356" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>10</v>
+      </c>
+      <c r="B357" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C357" t="s">
+        <v>12</v>
+      </c>
+      <c r="D357" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>10</v>
+      </c>
+      <c r="B358" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C358" t="s">
+        <v>12</v>
+      </c>
+      <c r="D358" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>10</v>
+      </c>
+      <c r="B359" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C359" t="s">
+        <v>12</v>
+      </c>
+      <c r="D359" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>10</v>
+      </c>
+      <c r="B360" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C360" t="s">
+        <v>12</v>
+      </c>
+      <c r="D360" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>10</v>
+      </c>
+      <c r="B361" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C361" t="s">
+        <v>12</v>
+      </c>
+      <c r="D361" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>10</v>
+      </c>
+      <c r="B362" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C362" t="s">
+        <v>12</v>
+      </c>
+      <c r="D362" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>10</v>
+      </c>
+      <c r="B363" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C363" t="s">
+        <v>12</v>
+      </c>
+      <c r="D363" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>10</v>
+      </c>
+      <c r="B364" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C364" t="s">
+        <v>12</v>
+      </c>
+      <c r="D364" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>10</v>
+      </c>
+      <c r="B365" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C365" t="s">
+        <v>12</v>
+      </c>
+      <c r="D365" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>10</v>
+      </c>
+      <c r="B366" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C366" t="s">
+        <v>12</v>
+      </c>
+      <c r="D366" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>10</v>
+      </c>
+      <c r="B367" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C367" t="s">
+        <v>12</v>
+      </c>
+      <c r="D367" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>10</v>
+      </c>
+      <c r="B368" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C368" t="s">
+        <v>12</v>
+      </c>
+      <c r="D368" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>10</v>
+      </c>
+      <c r="B369" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C369" t="s">
+        <v>12</v>
+      </c>
+      <c r="D369" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>10</v>
+      </c>
+      <c r="B370" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C370" t="s">
+        <v>12</v>
+      </c>
+      <c r="D370" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>10</v>
+      </c>
+      <c r="B371" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C371" t="s">
+        <v>12</v>
+      </c>
+      <c r="D371" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>10</v>
+      </c>
+      <c r="B372" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C372" t="s">
+        <v>12</v>
+      </c>
+      <c r="D372" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>10</v>
+      </c>
+      <c r="B373" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C373" t="s">
+        <v>12</v>
+      </c>
+      <c r="D373" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>10</v>
+      </c>
+      <c r="B374" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C374" t="s">
+        <v>12</v>
+      </c>
+      <c r="D374" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>10</v>
+      </c>
+      <c r="B375" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C375" t="s">
+        <v>12</v>
+      </c>
+      <c r="D375" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>10</v>
+      </c>
+      <c r="B376" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C376" t="s">
+        <v>12</v>
+      </c>
+      <c r="D376" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>10</v>
+      </c>
+      <c r="B377" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C377" t="s">
+        <v>12</v>
+      </c>
+      <c r="D377" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>10</v>
+      </c>
+      <c r="B378" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C378" t="s">
+        <v>12</v>
+      </c>
+      <c r="D378" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>10</v>
+      </c>
+      <c r="B379" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C379" t="s">
+        <v>12</v>
+      </c>
+      <c r="D379" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>10</v>
+      </c>
+      <c r="B380" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C380" t="s">
+        <v>12</v>
+      </c>
+      <c r="D380" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>10</v>
+      </c>
+      <c r="B381" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C381" t="s">
+        <v>12</v>
+      </c>
+      <c r="D381" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>10</v>
+      </c>
+      <c r="B382" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C382" t="s">
+        <v>12</v>
+      </c>
+      <c r="D382" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>10</v>
+      </c>
+      <c r="B383" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C383" t="s">
+        <v>12</v>
+      </c>
+      <c r="D383" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>10</v>
+      </c>
+      <c r="B384" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C384" t="s">
+        <v>12</v>
+      </c>
+      <c r="D384" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>10</v>
+      </c>
+      <c r="B385" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C385" t="s">
+        <v>12</v>
+      </c>
+      <c r="D385" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>10</v>
+      </c>
+      <c r="B386" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C386" t="s">
+        <v>12</v>
+      </c>
+      <c r="D386" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>10</v>
+      </c>
+      <c r="B387" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C387" t="s">
+        <v>12</v>
+      </c>
+      <c r="D387" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>10</v>
+      </c>
+      <c r="B388" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C388" t="s">
+        <v>12</v>
+      </c>
+      <c r="D388" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>10</v>
+      </c>
+      <c r="B389" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C389" t="s">
+        <v>12</v>
+      </c>
+      <c r="D389" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>10</v>
+      </c>
+      <c r="B390" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C390" t="s">
+        <v>12</v>
+      </c>
+      <c r="D390" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>10</v>
+      </c>
+      <c r="B391" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C391" t="s">
+        <v>12</v>
+      </c>
+      <c r="D391" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>10</v>
+      </c>
+      <c r="B392" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C392" t="s">
+        <v>12</v>
+      </c>
+      <c r="D392" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>10</v>
+      </c>
+      <c r="B393" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C393" t="s">
+        <v>12</v>
+      </c>
+      <c r="D393" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>10</v>
+      </c>
+      <c r="B394" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C394" t="s">
+        <v>12</v>
+      </c>
+      <c r="D394" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>10</v>
+      </c>
+      <c r="B395" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C395" t="s">
+        <v>12</v>
+      </c>
+      <c r="D395" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>10</v>
+      </c>
+      <c r="B396" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C396" t="s">
+        <v>12</v>
+      </c>
+      <c r="D396" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>10</v>
+      </c>
+      <c r="B397" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C397" t="s">
+        <v>12</v>
+      </c>
+      <c r="D397" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>10</v>
+      </c>
+      <c r="B398" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C398" t="s">
+        <v>12</v>
+      </c>
+      <c r="D398" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>10</v>
+      </c>
+      <c r="B399" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C399" t="s">
+        <v>12</v>
+      </c>
+      <c r="D399" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>10</v>
+      </c>
+      <c r="B400" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C400" t="s">
+        <v>12</v>
+      </c>
+      <c r="D400" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>10</v>
+      </c>
+      <c r="B401" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C401" t="s">
+        <v>12</v>
+      </c>
+      <c r="D401" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>10</v>
+      </c>
+      <c r="B402" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C402" t="s">
+        <v>12</v>
+      </c>
+      <c r="D402" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>10</v>
+      </c>
+      <c r="B403" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C403" t="s">
+        <v>12</v>
+      </c>
+      <c r="D403" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>10</v>
+      </c>
+      <c r="B404" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C404" t="s">
+        <v>12</v>
+      </c>
+      <c r="D404" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>10</v>
+      </c>
+      <c r="B405" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C405" t="s">
+        <v>12</v>
+      </c>
+      <c r="D405" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>10</v>
+      </c>
+      <c r="B406" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C406" t="s">
+        <v>12</v>
+      </c>
+      <c r="D406" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>10</v>
+      </c>
+      <c r="B407" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C407" t="s">
+        <v>12</v>
+      </c>
+      <c r="D407" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>10</v>
+      </c>
+      <c r="B408" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C408" t="s">
+        <v>12</v>
+      </c>
+      <c r="D408" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>10</v>
+      </c>
+      <c r="B409" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C409" t="s">
+        <v>12</v>
+      </c>
+      <c r="D409" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>10</v>
+      </c>
+      <c r="B410" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C410" t="s">
+        <v>12</v>
+      </c>
+      <c r="D410" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>10</v>
+      </c>
+      <c r="B411" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C411" t="s">
+        <v>12</v>
+      </c>
+      <c r="D411" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>10</v>
+      </c>
+      <c r="B412" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C412" t="s">
+        <v>12</v>
+      </c>
+      <c r="D412" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>10</v>
+      </c>
+      <c r="B413" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C413" t="s">
+        <v>12</v>
+      </c>
+      <c r="D413" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>10</v>
+      </c>
+      <c r="B414" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C414" t="s">
+        <v>12</v>
+      </c>
+      <c r="D414" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>10</v>
+      </c>
+      <c r="B415" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C415" t="s">
+        <v>12</v>
+      </c>
+      <c r="D415" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>10</v>
+      </c>
+      <c r="B416" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C416" t="s">
+        <v>12</v>
+      </c>
+      <c r="D416" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>10</v>
+      </c>
+      <c r="B417" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C417" t="s">
+        <v>12</v>
+      </c>
+      <c r="D417" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>10</v>
+      </c>
+      <c r="B418" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C418" t="s">
+        <v>12</v>
+      </c>
+      <c r="D418" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>10</v>
+      </c>
+      <c r="B419" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C419" t="s">
+        <v>12</v>
+      </c>
+      <c r="D419" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>10</v>
+      </c>
+      <c r="B420" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C420" t="s">
+        <v>12</v>
+      </c>
+      <c r="D420" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>10</v>
+      </c>
+      <c r="B421" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C421" t="s">
+        <v>12</v>
+      </c>
+      <c r="D421" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>10</v>
+      </c>
+      <c r="B422" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C422" t="s">
+        <v>12</v>
+      </c>
+      <c r="D422" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>10</v>
+      </c>
+      <c r="B423" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C423" t="s">
+        <v>12</v>
+      </c>
+      <c r="D423" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>10</v>
+      </c>
+      <c r="B424" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C424" t="s">
+        <v>12</v>
+      </c>
+      <c r="D424" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>10</v>
+      </c>
+      <c r="B425" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C425" t="s">
+        <v>12</v>
+      </c>
+      <c r="D425" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>10</v>
+      </c>
+      <c r="B426" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C426" t="s">
+        <v>12</v>
+      </c>
+      <c r="D426" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>10</v>
+      </c>
+      <c r="B427" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C427" t="s">
+        <v>12</v>
+      </c>
+      <c r="D427" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>10</v>
+      </c>
+      <c r="B428" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C428" t="s">
+        <v>12</v>
+      </c>
+      <c r="D428" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>10</v>
+      </c>
+      <c r="B429" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C429" t="s">
+        <v>12</v>
+      </c>
+      <c r="D429" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>10</v>
+      </c>
+      <c r="B430" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C430" t="s">
+        <v>12</v>
+      </c>
+      <c r="D430" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>10</v>
+      </c>
+      <c r="B431" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C431" t="s">
+        <v>12</v>
+      </c>
+      <c r="D431" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>10</v>
+      </c>
+      <c r="B432" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C432" t="s">
+        <v>12</v>
+      </c>
+      <c r="D432" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>10</v>
+      </c>
+      <c r="B433" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C433" t="s">
+        <v>12</v>
+      </c>
+      <c r="D433" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>10</v>
+      </c>
+      <c r="B434" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C434" t="s">
+        <v>12</v>
+      </c>
+      <c r="D434" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>10</v>
+      </c>
+      <c r="B435" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C435" t="s">
+        <v>12</v>
+      </c>
+      <c r="D435" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>10</v>
+      </c>
+      <c r="B436" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C436" t="s">
+        <v>12</v>
+      </c>
+      <c r="D436" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>10</v>
+      </c>
+      <c r="B437" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C437" t="s">
+        <v>12</v>
+      </c>
+      <c r="D437" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>10</v>
+      </c>
+      <c r="B438" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C438" t="s">
+        <v>12</v>
+      </c>
+      <c r="D438" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>10</v>
+      </c>
+      <c r="B439" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C439" t="s">
+        <v>12</v>
+      </c>
+      <c r="D439" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>10</v>
+      </c>
+      <c r="B440" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C440" t="s">
+        <v>12</v>
+      </c>
+      <c r="D440" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>10</v>
+      </c>
+      <c r="B441" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C441" t="s">
+        <v>12</v>
+      </c>
+      <c r="D441" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>10</v>
+      </c>
+      <c r="B442" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C442" t="s">
+        <v>12</v>
+      </c>
+      <c r="D442" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>10</v>
+      </c>
+      <c r="B443" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C443" t="s">
+        <v>12</v>
+      </c>
+      <c r="D443" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>10</v>
+      </c>
+      <c r="B444" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C444" t="s">
+        <v>12</v>
+      </c>
+      <c r="D444" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>10</v>
+      </c>
+      <c r="B445" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C445" t="s">
+        <v>12</v>
+      </c>
+      <c r="D445" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>10</v>
+      </c>
+      <c r="B446" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C446" t="s">
+        <v>12</v>
+      </c>
+      <c r="D446" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>10</v>
+      </c>
+      <c r="B447" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C447" t="s">
+        <v>12</v>
+      </c>
+      <c r="D447" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>10</v>
+      </c>
+      <c r="B448" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C448" t="s">
+        <v>12</v>
+      </c>
+      <c r="D448" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>10</v>
+      </c>
+      <c r="B449" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C449" t="s">
+        <v>12</v>
+      </c>
+      <c r="D449" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>10</v>
+      </c>
+      <c r="B450" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C450" t="s">
+        <v>12</v>
+      </c>
+      <c r="D450" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{5CA70BFB-DB32-47B7-A65F-5299CB504BEA}"/>
-    <hyperlink ref="B137" r:id="rId2" xr:uid="{23E2E0BD-58E6-4338-A023-FF9FD0B41637}"/>
-    <hyperlink ref="B138" r:id="rId3" xr:uid="{604DFC42-6AE4-455B-897E-010054D99C76}"/>
-    <hyperlink ref="B139" r:id="rId4" xr:uid="{89CC9B9B-C9C1-490E-81C9-791223C97920}"/>
-    <hyperlink ref="B3:B136" r:id="rId5" display="soporte@despachoatm.com" xr:uid="{D45060E5-008F-4493-94D8-0043756BB8E3}"/>
-    <hyperlink ref="B5:B70" r:id="rId6" display="soporte@despachoatm.com" xr:uid="{C73E16DB-C12C-4BDE-A23C-7F20E44A66C7}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{23E2E0BD-58E6-4338-A023-FF9FD0B41637}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{604DFC42-6AE4-455B-897E-010054D99C76}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{89CC9B9B-C9C1-490E-81C9-791223C97920}"/>
+    <hyperlink ref="B4" r:id="rId5" display="soporte@despachoatm.com" xr:uid="{D45060E5-008F-4493-94D8-0043756BB8E3}"/>
+    <hyperlink ref="B3" r:id="rId6" xr:uid="{BFAAB500-B3FB-4FC8-8303-BBE9097F31F3}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{08735191-71DA-4575-84BF-80A146D49DD6}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{B5E26847-BE5A-45BE-A033-A98F22D4F384}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{EA6E0FAC-579F-486F-AAE9-AD26D465445A}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{F4929B6A-3342-4605-94DF-55920BE0ABA7}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{FD680281-E7C2-4435-902A-8D2D360D895E}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{AF107073-0A03-4CBA-B84C-BA355F53DAEE}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{86D03316-F9B4-4ACB-A134-267DE4604F8C}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{92BFD4A9-1A0A-41F5-BFC6-4E25EF57250B}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{2ABECC07-38A8-4078-9874-FA16414851CC}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{DEBD87A6-ABFE-4FED-B4CD-A97784D13AED}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{6376FF56-9019-41F8-B6C0-16DEE5548E4E}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{CD801D1F-16A3-46EB-9A02-A1EECE6D12ED}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{7E4A63E9-61B9-47B8-A528-18FB9BF3F7B7}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{00187BC9-1345-4296-ABE8-EDE0E3C515B0}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{EB6CE0B4-08C1-4101-8582-723F775AC902}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{704C6291-FA41-4EC5-A96C-B743C9FD953A}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{6CDDDE91-9203-4EC5-BE33-7C87C4F4A49C}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{B142DEB0-A132-4EB2-ADF4-8F81829C80D4}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{9611DFFD-DC4B-49DE-ABA0-08E33F9D1D73}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{1ED81E23-F9A5-4D26-AAE0-6D5E9359534C}"/>
+    <hyperlink ref="B28" r:id="rId27" xr:uid="{16971724-8932-4DEB-BD28-8B1DE551435D}"/>
+    <hyperlink ref="B29" r:id="rId28" xr:uid="{098B694F-FE05-4792-9D5E-18185E017B30}"/>
+    <hyperlink ref="B30" r:id="rId29" xr:uid="{72F01244-4D97-4E7A-87BB-40B6C975AB24}"/>
+    <hyperlink ref="B31" r:id="rId30" xr:uid="{41B3E13F-E5E0-4095-82C2-80EC23E685E8}"/>
+    <hyperlink ref="B32" r:id="rId31" xr:uid="{2E631ADA-6C05-4574-8589-401789A44F9F}"/>
+    <hyperlink ref="B33" r:id="rId32" xr:uid="{367E9B6E-EB12-409E-9E03-9CFC678581F6}"/>
+    <hyperlink ref="B34" r:id="rId33" xr:uid="{D288E538-B5AE-4A79-9684-43EAEA1F67B8}"/>
+    <hyperlink ref="B35" r:id="rId34" xr:uid="{6D1AF85A-8377-40A8-BCA5-B126DB4A6EC2}"/>
+    <hyperlink ref="B36" r:id="rId35" xr:uid="{0EAE2DDF-C6C9-4BD8-897E-B44E2DF825D5}"/>
+    <hyperlink ref="B37" r:id="rId36" xr:uid="{EF683C09-5C85-429C-9BCB-BFD6681EEC5A}"/>
+    <hyperlink ref="B38" r:id="rId37" xr:uid="{84229843-2A39-4D4C-A72F-1B6223909E94}"/>
+    <hyperlink ref="B39" r:id="rId38" xr:uid="{C9C98374-0DEB-4CBB-837C-1E0B3D09082F}"/>
+    <hyperlink ref="B40" r:id="rId39" xr:uid="{515AAF2F-7318-49C4-9A1C-4FF184A65B01}"/>
+    <hyperlink ref="B41" r:id="rId40" xr:uid="{7FFCCDE9-9CC4-43B1-917D-E2806530EBA8}"/>
+    <hyperlink ref="B42" r:id="rId41" xr:uid="{B1173DB9-E720-428E-96F4-EFEA4A3E4924}"/>
+    <hyperlink ref="B43" r:id="rId42" xr:uid="{E77097BC-E247-4BD0-BBBF-3C8AD0DC7BA3}"/>
+    <hyperlink ref="B44" r:id="rId43" xr:uid="{0258160A-C3A3-46D9-A089-29762DE7DAD6}"/>
+    <hyperlink ref="B45" r:id="rId44" xr:uid="{20ED5FE1-4F70-4821-95B1-ECA86B755762}"/>
+    <hyperlink ref="B46" r:id="rId45" xr:uid="{BE4D30CF-162C-442D-B151-700C2D13E5C9}"/>
+    <hyperlink ref="B47" r:id="rId46" xr:uid="{57A24F07-7D1B-45A0-9F39-3FE3AFE5CFAD}"/>
+    <hyperlink ref="B48" r:id="rId47" xr:uid="{EDF1F20B-C225-4471-BDA3-AFC317F979A2}"/>
+    <hyperlink ref="B49" r:id="rId48" xr:uid="{1C976B1F-7C23-480B-849E-56457D4E052F}"/>
+    <hyperlink ref="B50" r:id="rId49" xr:uid="{6E2D1617-E396-4224-A63F-ED483DCC6C6E}"/>
+    <hyperlink ref="B51" r:id="rId50" xr:uid="{7A4FFBF5-7488-449F-B8D6-83AD5A0BE17E}"/>
+    <hyperlink ref="B52" r:id="rId51" xr:uid="{58ED1502-1007-4CC3-8CA2-8B9AC4787E12}"/>
+    <hyperlink ref="B53" r:id="rId52" xr:uid="{4541A332-FAB2-4B00-A157-E67FB5089AC0}"/>
+    <hyperlink ref="B54" r:id="rId53" xr:uid="{AF92A357-06C1-41E9-9488-9EF7F735F5AA}"/>
+    <hyperlink ref="B55" r:id="rId54" xr:uid="{A5BF9C4C-BC2B-4F78-8BFD-D5307629AB4E}"/>
+    <hyperlink ref="B56" r:id="rId55" xr:uid="{CD9F33CE-63B4-42CA-A65E-03460B931EE7}"/>
+    <hyperlink ref="B57" r:id="rId56" xr:uid="{E6CE88F3-B8D3-4A10-8E2E-31123CCB7252}"/>
+    <hyperlink ref="B58" r:id="rId57" xr:uid="{8204E630-4237-4C12-AABB-9CE1E8C2EE70}"/>
+    <hyperlink ref="B59" r:id="rId58" xr:uid="{4C7FE5A9-6C61-4E1A-8314-DC5E653A2EA7}"/>
+    <hyperlink ref="B60" r:id="rId59" xr:uid="{6D598B4E-EA7F-4976-B1DD-AD0BFCA14267}"/>
+    <hyperlink ref="B61" r:id="rId60" xr:uid="{A8EFD09D-BB6E-4ADF-B25B-06EB472FB05F}"/>
+    <hyperlink ref="B62" r:id="rId61" xr:uid="{82C98FC1-ED9A-40F6-A305-3BFFA0814F64}"/>
+    <hyperlink ref="B63" r:id="rId62" xr:uid="{F2040A07-9FA9-4AC9-80F2-B2065305216E}"/>
+    <hyperlink ref="B64" r:id="rId63" xr:uid="{CAFC1409-9D16-4B41-9220-7B70E180F955}"/>
+    <hyperlink ref="B65" r:id="rId64" xr:uid="{D759D207-8196-46F3-845D-F31A1F42C62F}"/>
+    <hyperlink ref="B66" r:id="rId65" xr:uid="{85790950-8042-453E-A2B3-5E669209789D}"/>
+    <hyperlink ref="B67" r:id="rId66" xr:uid="{2BAE81DE-9472-43E0-A1A7-EB3C24BD24C4}"/>
+    <hyperlink ref="B68" r:id="rId67" xr:uid="{C2768AA3-90EB-4251-8D2A-D15D05CF3F5B}"/>
+    <hyperlink ref="B69" r:id="rId68" xr:uid="{0E9F5269-EB2D-497D-B3D0-D6E4F4050B4D}"/>
+    <hyperlink ref="B70" r:id="rId69" xr:uid="{347AA11E-0C39-42B6-ADDA-AC2EF23066FA}"/>
+    <hyperlink ref="B71" r:id="rId70" xr:uid="{D40150EC-7D0B-4388-9859-5A4807E658F9}"/>
+    <hyperlink ref="B72" r:id="rId71" xr:uid="{CC226D67-49A2-4E79-95EC-1BEBBDC9ACC5}"/>
+    <hyperlink ref="B73" r:id="rId72" xr:uid="{12EEE5EF-C818-48CC-9D4A-FD37F2C66554}"/>
+    <hyperlink ref="B74" r:id="rId73" xr:uid="{6A8C6CCB-6BC2-4C8F-AFD2-237E783C6C6A}"/>
+    <hyperlink ref="B75" r:id="rId74" xr:uid="{28BE8A87-C88B-49FC-9F0B-AA3C56BC20B8}"/>
+    <hyperlink ref="B76" r:id="rId75" xr:uid="{2C1AC18B-634C-43A1-B3D3-FDEAD22DEA0E}"/>
+    <hyperlink ref="B77" r:id="rId76" xr:uid="{2E53E357-6D9C-4ABB-8812-2C04B7A566F3}"/>
+    <hyperlink ref="B78" r:id="rId77" xr:uid="{EDB4779B-95DC-4D31-B861-E490F4DD31D0}"/>
+    <hyperlink ref="B79" r:id="rId78" xr:uid="{723EE5F2-BAD6-4521-879B-A7081A26E11B}"/>
+    <hyperlink ref="B80" r:id="rId79" xr:uid="{F5EE9662-1F7A-493D-A36A-F794DC6731F8}"/>
+    <hyperlink ref="B81" r:id="rId80" xr:uid="{5F3429BB-61CB-4CD0-AD1A-0BB99431E5B6}"/>
+    <hyperlink ref="B82" r:id="rId81" xr:uid="{31A17944-489A-42D8-B1C4-4E13AD7DBB48}"/>
+    <hyperlink ref="B83" r:id="rId82" xr:uid="{D02D69DD-CDCF-4362-BAED-A3E17F9A07C2}"/>
+    <hyperlink ref="B84" r:id="rId83" xr:uid="{5C60B584-3414-4913-B008-B72A2ACE4394}"/>
+    <hyperlink ref="B85" r:id="rId84" xr:uid="{B79B0172-C88A-45ED-9B45-AA681D1F333F}"/>
+    <hyperlink ref="B86" r:id="rId85" xr:uid="{8132164C-5FFA-4EE3-9B58-A02AB7D0DB6D}"/>
+    <hyperlink ref="B87" r:id="rId86" xr:uid="{491903EC-823D-49CB-A0A9-DC637208BA7F}"/>
+    <hyperlink ref="B88" r:id="rId87" xr:uid="{B5EBB75A-A433-44B4-9B9B-D3EB4CC4B7A9}"/>
+    <hyperlink ref="B89" r:id="rId88" xr:uid="{CF8649C7-A332-4526-81C9-76C495315E68}"/>
+    <hyperlink ref="B90" r:id="rId89" xr:uid="{96FB8B8B-D5BE-4941-8B5E-EE1EDB35DBF0}"/>
+    <hyperlink ref="B91" r:id="rId90" xr:uid="{4CC18E36-1521-484D-85F1-D7B61EEFA15E}"/>
+    <hyperlink ref="B92" r:id="rId91" xr:uid="{0671F534-C7C0-4A44-BC0C-E1259D05F857}"/>
+    <hyperlink ref="B93" r:id="rId92" xr:uid="{E5D9C886-F017-43C3-9454-25FAFCC912EA}"/>
+    <hyperlink ref="B94" r:id="rId93" xr:uid="{8EAB53B9-0FBA-4207-AB6D-46164C41B490}"/>
+    <hyperlink ref="B95" r:id="rId94" xr:uid="{1177D95F-D984-4B64-99F6-BAA6B062E5C0}"/>
+    <hyperlink ref="B96" r:id="rId95" xr:uid="{44176D48-C373-4F2F-BACF-1DD02199F254}"/>
+    <hyperlink ref="B97" r:id="rId96" xr:uid="{D67BC976-5BD0-4312-B298-9A7433B1972B}"/>
+    <hyperlink ref="B98" r:id="rId97" xr:uid="{2E64A810-FBBC-41A1-9EF6-4120DFAB5B60}"/>
+    <hyperlink ref="B99" r:id="rId98" xr:uid="{F2479FCD-A421-4857-A78B-714B439F359B}"/>
+    <hyperlink ref="B100" r:id="rId99" xr:uid="{4ED82538-AE2B-4B48-8C80-7733CF6B6FCB}"/>
+    <hyperlink ref="B101" r:id="rId100" xr:uid="{905DCA40-F827-4E0F-9417-6BB3B654F4B4}"/>
+    <hyperlink ref="B102" r:id="rId101" xr:uid="{A8102FC2-3845-4615-AE84-4A645FDCF527}"/>
+    <hyperlink ref="B103" r:id="rId102" xr:uid="{E9CBDCD7-33D2-4952-9C22-476A459F4CC5}"/>
+    <hyperlink ref="B104" r:id="rId103" xr:uid="{7BA86F49-6CAE-473F-B6F7-7E28A2B7BAD8}"/>
+    <hyperlink ref="B105" r:id="rId104" xr:uid="{02BD433E-CB9C-4257-BA1C-BB0AA04222EF}"/>
+    <hyperlink ref="B106" r:id="rId105" xr:uid="{2DB41AAE-BF7C-438C-8AFE-806327E5C34A}"/>
+    <hyperlink ref="B107" r:id="rId106" xr:uid="{EB22EB1A-1B20-4767-8244-04EFE11F139B}"/>
+    <hyperlink ref="B108" r:id="rId107" xr:uid="{629527E7-A810-4BB7-B301-89E519F42412}"/>
+    <hyperlink ref="B109" r:id="rId108" xr:uid="{3A43DF1D-66F7-433F-B074-ACACCF75E681}"/>
+    <hyperlink ref="B110" r:id="rId109" xr:uid="{B5575DBD-E84A-4E8A-8268-CDB11052ADEF}"/>
+    <hyperlink ref="B111" r:id="rId110" xr:uid="{E7B54041-95E7-4D56-AA72-675238012E13}"/>
+    <hyperlink ref="B112" r:id="rId111" xr:uid="{7B61DB7B-8960-4DBF-8AC9-AED1160AA482}"/>
+    <hyperlink ref="B113" r:id="rId112" xr:uid="{F05A9FF4-7240-4B72-8B49-AAE1EBBC0858}"/>
+    <hyperlink ref="B114" r:id="rId113" xr:uid="{B6526B8A-C20C-4B90-8A2C-BF723B452FA5}"/>
+    <hyperlink ref="B115" r:id="rId114" xr:uid="{D6A5EB38-DD0A-4F8C-BA43-02F0E4154FBA}"/>
+    <hyperlink ref="B116" r:id="rId115" xr:uid="{F9081FE0-5C46-41FE-80A4-3A0CB3ECE66C}"/>
+    <hyperlink ref="B117" r:id="rId116" xr:uid="{558F503F-F27F-4CDA-9DBE-90018585FC59}"/>
+    <hyperlink ref="B118" r:id="rId117" xr:uid="{4E265F33-3BFA-4B9F-8392-D00EE697F296}"/>
+    <hyperlink ref="B119" r:id="rId118" xr:uid="{29585262-6589-44F8-AE8E-3EFEE4FA8058}"/>
+    <hyperlink ref="B120" r:id="rId119" xr:uid="{4FF08916-F85C-491F-B99D-1CC9BEAC07F2}"/>
+    <hyperlink ref="B121" r:id="rId120" xr:uid="{EF87B9B0-4F12-4FEF-AE6C-810ABB45FBBF}"/>
+    <hyperlink ref="B122" r:id="rId121" xr:uid="{F7BB4A4C-202B-429E-B183-176A1315701A}"/>
+    <hyperlink ref="B123" r:id="rId122" xr:uid="{70DFA84D-294C-4DF3-BBCD-98F16551E1EA}"/>
+    <hyperlink ref="B124" r:id="rId123" xr:uid="{8ACCD274-AF1D-4C54-93E3-55DCEE2E2E97}"/>
+    <hyperlink ref="B125" r:id="rId124" xr:uid="{B2A4B6FE-64E2-4285-B805-B6AF0E3FE481}"/>
+    <hyperlink ref="B126" r:id="rId125" xr:uid="{D0248C64-BE9A-4B74-B229-76F781E8B389}"/>
+    <hyperlink ref="B127" r:id="rId126" xr:uid="{C96C94DA-BFC7-4523-8008-D513E109FE8B}"/>
+    <hyperlink ref="B128" r:id="rId127" xr:uid="{80AB0CED-4C4B-47F7-8485-E75C6A2AC4B3}"/>
+    <hyperlink ref="B129" r:id="rId128" xr:uid="{8DAD1A07-A7B4-4EB2-B848-0E0C70BCB133}"/>
+    <hyperlink ref="B130" r:id="rId129" xr:uid="{DEDC3944-0436-4381-A248-3D9C8DE3BCEA}"/>
+    <hyperlink ref="B131" r:id="rId130" xr:uid="{D16FE452-881B-4258-9C6A-B75C704C1EA7}"/>
+    <hyperlink ref="B132" r:id="rId131" xr:uid="{8B14E6B4-F02D-4599-B174-9BC411197351}"/>
+    <hyperlink ref="B133" r:id="rId132" xr:uid="{076EE918-CFC2-4A9C-ADE0-6E431B1F4872}"/>
+    <hyperlink ref="B134" r:id="rId133" xr:uid="{F56827B9-8EAD-4D5D-8C3B-7B5F8D67F8A8}"/>
+    <hyperlink ref="B135" r:id="rId134" xr:uid="{7A919E37-2737-4D60-A358-695DEBA6FFB4}"/>
+    <hyperlink ref="B136" r:id="rId135" xr:uid="{40C39C34-5CED-4B32-91AB-98869F6B5AE1}"/>
+    <hyperlink ref="B137" r:id="rId136" xr:uid="{94BF52C3-C56A-4575-A960-5D8D38D7F23B}"/>
+    <hyperlink ref="B138" r:id="rId137" xr:uid="{625F2A22-09D3-48A6-8E95-283260838423}"/>
+    <hyperlink ref="B139" r:id="rId138" xr:uid="{DF919CE7-ADCD-4D5B-91FF-7356532CBF53}"/>
+    <hyperlink ref="B140" r:id="rId139" xr:uid="{C1D3649E-3680-4D13-B448-554C7A317CEF}"/>
+    <hyperlink ref="B141" r:id="rId140" xr:uid="{CB4D1F7A-2BD4-4DCB-BC87-B2D4AF0DE566}"/>
+    <hyperlink ref="B142" r:id="rId141" xr:uid="{0DB06F13-6812-476C-B834-91D3B7D7FCD0}"/>
+    <hyperlink ref="B143" r:id="rId142" xr:uid="{737EEA2C-90A6-4A51-8B8F-57E6972A4B48}"/>
+    <hyperlink ref="B144" r:id="rId143" xr:uid="{DD5A06C4-D700-49C5-B4A8-1655C1880A3D}"/>
+    <hyperlink ref="B145" r:id="rId144" xr:uid="{A761AB3C-730F-45CC-B9B8-E2273F32D9D8}"/>
+    <hyperlink ref="B146" r:id="rId145" xr:uid="{FCFE109D-AFE4-48F0-B296-385763E17A60}"/>
+    <hyperlink ref="B147" r:id="rId146" xr:uid="{3B60AF6D-F842-41B9-AFAE-AB315AB973FD}"/>
+    <hyperlink ref="B148" r:id="rId147" xr:uid="{98C4B87C-FB0F-4909-A1A5-3CBD9AD7364D}"/>
+    <hyperlink ref="B149" r:id="rId148" xr:uid="{B1153083-6C2A-4CC9-99DB-A37D5C09FD91}"/>
+    <hyperlink ref="B150" r:id="rId149" xr:uid="{D10CAC0A-3F70-45C2-839C-246923C8ED9E}"/>
+    <hyperlink ref="B151" r:id="rId150" xr:uid="{F43DD2B4-443A-430C-A6B3-CC627DB80F50}"/>
+    <hyperlink ref="B152" r:id="rId151" xr:uid="{ED01C107-B3D4-4540-B6BD-34B0686D04FA}"/>
+    <hyperlink ref="B153" r:id="rId152" xr:uid="{7B7B2058-E5C4-4D8B-A275-1A9ECC87B8D6}"/>
+    <hyperlink ref="B154" r:id="rId153" xr:uid="{F40F3F11-6239-4F79-97E9-34D4C1874228}"/>
+    <hyperlink ref="B155" r:id="rId154" xr:uid="{C6364DDC-5BFB-44A8-822B-7AC8B57960AD}"/>
+    <hyperlink ref="B156" r:id="rId155" xr:uid="{FCB32E37-39C7-463C-9772-EEF7FF65FFC0}"/>
+    <hyperlink ref="B157" r:id="rId156" xr:uid="{F39F6823-A773-4963-AA94-5DE8FF3EC022}"/>
+    <hyperlink ref="B158" r:id="rId157" xr:uid="{C7A67C42-235A-4EB5-BCFC-457DD1FD0DA0}"/>
+    <hyperlink ref="B159" r:id="rId158" xr:uid="{3767E9F5-0527-4628-9914-2943F78BF801}"/>
+    <hyperlink ref="B160" r:id="rId159" xr:uid="{86C4C49F-D627-4B1C-B5F3-7D42B289F62C}"/>
+    <hyperlink ref="B161" r:id="rId160" xr:uid="{E114A8F3-2B38-44DB-B657-8E9460348FF8}"/>
+    <hyperlink ref="B162" r:id="rId161" xr:uid="{8271C9CE-0CFC-441B-92E0-CDE0A12DE72D}"/>
+    <hyperlink ref="B163" r:id="rId162" xr:uid="{271FF2EE-5687-4F07-BBA8-5556BEAD717E}"/>
+    <hyperlink ref="B164" r:id="rId163" xr:uid="{A1D09E4D-D2FC-428E-8AA7-95BCC9C27CE0}"/>
+    <hyperlink ref="B165" r:id="rId164" xr:uid="{3ED15172-FF35-4B15-A76E-56E7CCEBD21D}"/>
+    <hyperlink ref="B166" r:id="rId165" xr:uid="{D3E1A85C-9F17-43A8-BA91-57FA040F9441}"/>
+    <hyperlink ref="B167" r:id="rId166" xr:uid="{828AC161-5798-4BA3-A3EB-3A31E33048BB}"/>
+    <hyperlink ref="B168" r:id="rId167" xr:uid="{6CB43B3A-BEEB-4F80-A6CC-DC0C15AACA79}"/>
+    <hyperlink ref="B169" r:id="rId168" xr:uid="{0BE933FD-A82F-4A37-846B-AF95A5E90095}"/>
+    <hyperlink ref="B170" r:id="rId169" xr:uid="{18E1C157-7F8A-4509-8419-7D80251BB52C}"/>
+    <hyperlink ref="B171" r:id="rId170" xr:uid="{9685B582-11CF-4C99-A325-11BC08DB6ED0}"/>
+    <hyperlink ref="B172" r:id="rId171" xr:uid="{9D3420F4-E6F5-4898-BF23-B7BA6F2EEDCA}"/>
+    <hyperlink ref="B173" r:id="rId172" xr:uid="{294089B3-D8E0-48AF-B0B4-8B4A491FB612}"/>
+    <hyperlink ref="B174" r:id="rId173" xr:uid="{C58850D1-6059-4D1B-9CDB-9B540530D581}"/>
+    <hyperlink ref="B175" r:id="rId174" xr:uid="{D99CFC46-3FE2-44B1-8D70-7056FE430E16}"/>
+    <hyperlink ref="B176" r:id="rId175" xr:uid="{61625F08-8779-45A0-8425-46E0BC5268E4}"/>
+    <hyperlink ref="B177" r:id="rId176" xr:uid="{B5ABCB4A-BC8D-4440-8802-8EB768D8258A}"/>
+    <hyperlink ref="B178" r:id="rId177" xr:uid="{F7EE0397-2FD0-4D46-9DB6-B428F9A03986}"/>
+    <hyperlink ref="B179" r:id="rId178" xr:uid="{5B8F590C-FF0D-4C6B-9CDC-17DD64E4A31F}"/>
+    <hyperlink ref="B180" r:id="rId179" xr:uid="{DBD22C79-AFA5-485A-8862-D307E87BEBA2}"/>
+    <hyperlink ref="B181" r:id="rId180" xr:uid="{D4BB5E70-72F6-4619-A3CF-78550D8E2B14}"/>
+    <hyperlink ref="B182" r:id="rId181" xr:uid="{6A2755F9-FABC-4D0E-830E-0DAA0168305C}"/>
+    <hyperlink ref="B183" r:id="rId182" xr:uid="{7BCD5305-C3A9-49C9-B3DD-BAC330E9DD9A}"/>
+    <hyperlink ref="B184" r:id="rId183" xr:uid="{BB442B67-D932-425F-8A29-889FB04FBCD6}"/>
+    <hyperlink ref="B185" r:id="rId184" xr:uid="{AE5325DA-9A16-4BB1-91B7-3E10B126498F}"/>
+    <hyperlink ref="B186" r:id="rId185" xr:uid="{0C074CEA-1D95-4F72-AAFE-C7E3FDBCFFB3}"/>
+    <hyperlink ref="B187" r:id="rId186" xr:uid="{7E95634B-7E43-42F4-B7FA-487483558282}"/>
+    <hyperlink ref="B188" r:id="rId187" xr:uid="{5E8BDF12-E116-4DA5-AEF3-E5F6AF96CCEF}"/>
+    <hyperlink ref="B189" r:id="rId188" xr:uid="{494BEF16-400A-4BBA-8DED-C8CEC75E0789}"/>
+    <hyperlink ref="B190" r:id="rId189" xr:uid="{674606A8-857A-486B-BBC1-BCACC1F8060B}"/>
+    <hyperlink ref="B191" r:id="rId190" xr:uid="{27BBCA22-F9FC-4652-A71D-9286E6056442}"/>
+    <hyperlink ref="B192" r:id="rId191" xr:uid="{A4200603-B776-4071-9686-4FBF7D191627}"/>
+    <hyperlink ref="B193" r:id="rId192" xr:uid="{065219B8-B695-4E5F-929E-F4164C2E95A5}"/>
+    <hyperlink ref="B194" r:id="rId193" xr:uid="{712C7A6E-2FF4-4C67-80DD-58E5B65056FE}"/>
+    <hyperlink ref="B195" r:id="rId194" xr:uid="{C4925430-7C4F-4B64-8A1B-F198ADB5051A}"/>
+    <hyperlink ref="B196" r:id="rId195" xr:uid="{1C446D3F-D660-41FA-8B89-6DFD0CAD9BC7}"/>
+    <hyperlink ref="B197" r:id="rId196" xr:uid="{89AEF017-BCA6-412A-A729-D689218FAA5E}"/>
+    <hyperlink ref="B198" r:id="rId197" xr:uid="{85E113D8-6F3D-4ECE-9160-449D2686116E}"/>
+    <hyperlink ref="B199" r:id="rId198" xr:uid="{BF53A065-8BCF-4DA8-B586-B8155432CBEA}"/>
+    <hyperlink ref="B200" r:id="rId199" xr:uid="{8ED5CC54-9F8A-4727-87D6-964BD6FF6DFC}"/>
+    <hyperlink ref="B201" r:id="rId200" xr:uid="{8471169C-37AF-4DA1-B2DA-988CBFA0631A}"/>
+    <hyperlink ref="B202" r:id="rId201" xr:uid="{77DDD9E8-7FD6-4D26-82E4-02629B71553F}"/>
+    <hyperlink ref="B203" r:id="rId202" xr:uid="{9F2871F2-E2A6-4ACA-91C7-CED27C442585}"/>
+    <hyperlink ref="B204" r:id="rId203" xr:uid="{8F53D10E-7F4E-4CA0-AB14-A1A8F247C491}"/>
+    <hyperlink ref="B205" r:id="rId204" xr:uid="{75889F06-C91A-4F2C-82F6-53959AFFF868}"/>
+    <hyperlink ref="B206" r:id="rId205" xr:uid="{2DD0FA5E-70D6-4107-AE31-E3B670254B3B}"/>
+    <hyperlink ref="B207" r:id="rId206" xr:uid="{959AF839-60F0-4285-A9C5-D12C920520C1}"/>
+    <hyperlink ref="B208" r:id="rId207" xr:uid="{09B77866-CEE8-4C8B-83AA-CF4336D784F4}"/>
+    <hyperlink ref="B209" r:id="rId208" xr:uid="{D8F9C9A0-8283-4931-9845-8F70A4011A44}"/>
+    <hyperlink ref="B210" r:id="rId209" xr:uid="{0119ED42-8C10-4A98-BAB2-658BD18B6A8C}"/>
+    <hyperlink ref="B211" r:id="rId210" xr:uid="{CB89D5DE-BFA5-43DC-BED5-4C345D7270CC}"/>
+    <hyperlink ref="B212" r:id="rId211" xr:uid="{40E85B41-057A-40B6-A954-F5C612B3F186}"/>
+    <hyperlink ref="B213" r:id="rId212" xr:uid="{E6936D6D-AA73-4419-B522-AFC4F7F81A18}"/>
+    <hyperlink ref="B214" r:id="rId213" xr:uid="{23EE8231-384E-44B1-ACBC-8AB442ED7CAC}"/>
+    <hyperlink ref="B215" r:id="rId214" xr:uid="{2A608B9A-D2CA-40E4-9C64-1D536036E02D}"/>
+    <hyperlink ref="B216" r:id="rId215" xr:uid="{A0F7CA74-ECFF-4882-AFC3-CF54C4A94BE6}"/>
+    <hyperlink ref="B217" r:id="rId216" xr:uid="{1816FF48-3155-4358-AD05-7B21712245C5}"/>
+    <hyperlink ref="B218" r:id="rId217" xr:uid="{89C159B0-412C-48DD-915B-58D308F2A5CC}"/>
+    <hyperlink ref="B219" r:id="rId218" xr:uid="{AD929142-8191-4BAD-ADA6-8F6196F22C51}"/>
+    <hyperlink ref="B220" r:id="rId219" xr:uid="{8C7E558E-4FBA-47B4-B3DF-7D614A532FBF}"/>
+    <hyperlink ref="B221" r:id="rId220" xr:uid="{B8AAC0DD-9475-4675-BDDD-87C3E81538DB}"/>
+    <hyperlink ref="B222" r:id="rId221" xr:uid="{48FC8EE0-7BEE-414D-A575-CA25AC724363}"/>
+    <hyperlink ref="B223" r:id="rId222" xr:uid="{2C44FAEB-2119-4B74-93BD-FFB5EBAFCD2C}"/>
+    <hyperlink ref="B224" r:id="rId223" xr:uid="{C46A6119-35CD-42A0-A545-C6A0052FEFCF}"/>
+    <hyperlink ref="B225" r:id="rId224" xr:uid="{6EE535AD-3378-4DC9-84FC-0383A38C1310}"/>
+    <hyperlink ref="B226" r:id="rId225" xr:uid="{2A1BD5FE-9F78-4329-8BC3-F0F8BB3BA7F7}"/>
+    <hyperlink ref="B227" r:id="rId226" xr:uid="{16AC3277-2EAC-497C-9BF1-34605A9C1B7F}"/>
+    <hyperlink ref="B228" r:id="rId227" xr:uid="{92615258-7026-41C3-AB98-1D313C44DDEE}"/>
+    <hyperlink ref="B229" r:id="rId228" xr:uid="{B2A433E0-2016-4784-BFB2-5604689212E3}"/>
+    <hyperlink ref="B230" r:id="rId229" xr:uid="{082E1B08-0799-495A-A35A-37CD0BD10574}"/>
+    <hyperlink ref="B231" r:id="rId230" xr:uid="{F712DFE1-5909-40D8-A798-103932DD66EA}"/>
+    <hyperlink ref="B232" r:id="rId231" xr:uid="{386E4A1E-57E1-42DA-A6E1-40635FA9F7E2}"/>
+    <hyperlink ref="B233" r:id="rId232" xr:uid="{58DEB6DF-5C3D-4809-AE73-9036E27C83B2}"/>
+    <hyperlink ref="B234" r:id="rId233" xr:uid="{B7980577-155A-478D-905D-772204F9E2B9}"/>
+    <hyperlink ref="B235" r:id="rId234" xr:uid="{EB2AABCA-C6EB-4CEC-982A-8A758D2A574C}"/>
+    <hyperlink ref="B236" r:id="rId235" xr:uid="{6F13D81B-3106-45CE-97B4-0C736979DF3F}"/>
+    <hyperlink ref="B237" r:id="rId236" xr:uid="{B3A4A39D-3C62-4594-9C9D-A485916C3D99}"/>
+    <hyperlink ref="B238" r:id="rId237" xr:uid="{6B1D0585-4772-461C-9AD4-E29364D4F6CA}"/>
+    <hyperlink ref="B239" r:id="rId238" xr:uid="{6DAF4EAC-F77B-4592-9632-B7808E64A03A}"/>
+    <hyperlink ref="B240" r:id="rId239" xr:uid="{92D5B7AF-AFDC-4D6D-B8C8-27227507C1CD}"/>
+    <hyperlink ref="B241" r:id="rId240" xr:uid="{1CC1CF57-D45A-4056-8B66-33E6D3B7AEE7}"/>
+    <hyperlink ref="B242" r:id="rId241" xr:uid="{39D4F2CA-699F-4A85-A5B1-C8AA4029C8C1}"/>
+    <hyperlink ref="B243" r:id="rId242" xr:uid="{100DD085-CACC-4CFD-90B3-8139E5593B9D}"/>
+    <hyperlink ref="B244" r:id="rId243" xr:uid="{08B68D49-E2A9-4FEE-B222-65AF9F3AFD72}"/>
+    <hyperlink ref="B245" r:id="rId244" xr:uid="{975CDC9B-AFC5-4E89-AFBB-C3396DB3122C}"/>
+    <hyperlink ref="B246" r:id="rId245" xr:uid="{A62D6532-DB53-4FD2-AAEA-4EC464354CFB}"/>
+    <hyperlink ref="B247" r:id="rId246" xr:uid="{63828FA7-5937-4EE8-AD10-20A393F67763}"/>
+    <hyperlink ref="B248" r:id="rId247" xr:uid="{D12B5D84-315C-4B88-9764-2ED23C33D456}"/>
+    <hyperlink ref="B249" r:id="rId248" xr:uid="{4381411E-CD6A-42E8-A0EA-62C8958102C8}"/>
+    <hyperlink ref="B250" r:id="rId249" xr:uid="{BB9F7E8F-6A6B-47B9-A772-291EFB94B420}"/>
+    <hyperlink ref="B251" r:id="rId250" xr:uid="{C16A649A-734E-4839-A8FF-3E3DB1FA1CCB}"/>
+    <hyperlink ref="B252" r:id="rId251" xr:uid="{9A216C61-6606-4779-8922-80A2A99EFA0C}"/>
+    <hyperlink ref="B253" r:id="rId252" xr:uid="{37CCC3F4-0AA6-4596-A30A-135BCFBA89C0}"/>
+    <hyperlink ref="B254" r:id="rId253" xr:uid="{909C6FEB-B4B8-456B-AFFC-FDF51E93C3B5}"/>
+    <hyperlink ref="B255" r:id="rId254" xr:uid="{A90649DD-ADB1-47A1-B67F-30AD453D9244}"/>
+    <hyperlink ref="B256" r:id="rId255" xr:uid="{8B262F85-2649-49B6-AD4F-1647319C85B8}"/>
+    <hyperlink ref="B257" r:id="rId256" xr:uid="{5A61703D-45D3-474C-869D-9121433BB9FB}"/>
+    <hyperlink ref="B258" r:id="rId257" xr:uid="{6635C3B3-11FB-4621-ADAA-E02067569F29}"/>
+    <hyperlink ref="B259" r:id="rId258" xr:uid="{8B5BD6B1-A4B7-463F-8E8A-77D471BC12B5}"/>
+    <hyperlink ref="B260" r:id="rId259" xr:uid="{16A27849-8C0A-49B2-A409-F30D6D7F3E00}"/>
+    <hyperlink ref="B261" r:id="rId260" xr:uid="{96F8E82B-370B-4637-A482-69B68926E336}"/>
+    <hyperlink ref="B262" r:id="rId261" xr:uid="{7A2D9438-63FD-44DF-931E-E261CFC10AD9}"/>
+    <hyperlink ref="B263" r:id="rId262" xr:uid="{D8970578-8E34-4203-B45F-D5342703BD6D}"/>
+    <hyperlink ref="B264" r:id="rId263" xr:uid="{67F70631-A36E-44A0-9BC3-6259BC26933F}"/>
+    <hyperlink ref="B265" r:id="rId264" xr:uid="{C2BDD152-FAC2-4904-8EA3-A9A246E6B419}"/>
+    <hyperlink ref="B266" r:id="rId265" xr:uid="{494C912B-346B-4688-A36C-0E42EE900FDA}"/>
+    <hyperlink ref="B267" r:id="rId266" xr:uid="{6F980DD9-E69A-4A1C-ADDD-061D30598911}"/>
+    <hyperlink ref="B268" r:id="rId267" xr:uid="{9A9A1E32-0B6C-4A7A-8890-1C1D9347797F}"/>
+    <hyperlink ref="B269" r:id="rId268" xr:uid="{D3D5B63B-2F93-4E1C-B4B5-3171D85C63AF}"/>
+    <hyperlink ref="B270" r:id="rId269" xr:uid="{A4FAF98A-8BDE-4862-B0BD-2515BD778D3F}"/>
+    <hyperlink ref="B271" r:id="rId270" xr:uid="{B3AFF14A-4D20-46F6-822B-27F763640880}"/>
+    <hyperlink ref="B272" r:id="rId271" xr:uid="{B9AADCAF-8C48-42F6-9FC6-ED0A6D13CF2C}"/>
+    <hyperlink ref="B273" r:id="rId272" xr:uid="{C85DD069-75D1-451B-96E4-367B664C3AFF}"/>
+    <hyperlink ref="B274" r:id="rId273" xr:uid="{11A605BF-2C04-4893-A3EC-5DFA6F0CBD0F}"/>
+    <hyperlink ref="B275" r:id="rId274" xr:uid="{F0C1BDAA-0A87-44B1-889A-22778928B845}"/>
+    <hyperlink ref="B276" r:id="rId275" xr:uid="{5E6FD1CB-1B2B-4047-8333-33A8516F3A35}"/>
+    <hyperlink ref="B277" r:id="rId276" xr:uid="{A5961E21-B7C4-499E-A780-15ABA3BED610}"/>
+    <hyperlink ref="B278" r:id="rId277" xr:uid="{3A7D960C-C5B3-4839-B0DC-8FB263514F97}"/>
+    <hyperlink ref="B279" r:id="rId278" xr:uid="{A3A6E2B3-A3AF-474B-A9EF-BD0433936DBC}"/>
+    <hyperlink ref="B280" r:id="rId279" xr:uid="{A11271B1-354F-4E2E-9702-4904B3429757}"/>
+    <hyperlink ref="B281" r:id="rId280" xr:uid="{E3B40249-9DD3-41BE-B344-F5E683B71E62}"/>
+    <hyperlink ref="B282" r:id="rId281" xr:uid="{B61C6DB1-EEF6-4F60-96BB-5B35B060C2BE}"/>
+    <hyperlink ref="B283" r:id="rId282" xr:uid="{D1692D1B-5C42-4F08-B1CA-F8431D03023F}"/>
+    <hyperlink ref="B284" r:id="rId283" xr:uid="{A2462739-CBD2-41F2-A9CB-5CCF44367F43}"/>
+    <hyperlink ref="B285" r:id="rId284" xr:uid="{05EE9EA9-685D-4F6F-AE36-13C2361C7A56}"/>
+    <hyperlink ref="B286" r:id="rId285" xr:uid="{C6BF044B-B9F0-4CD2-A90F-8303443CB069}"/>
+    <hyperlink ref="B287" r:id="rId286" xr:uid="{008A20A5-BD20-4AA8-A2C8-851055DCCCE7}"/>
+    <hyperlink ref="B288" r:id="rId287" xr:uid="{6382E6E1-A228-4813-808E-86BAFF9A7EA5}"/>
+    <hyperlink ref="B289" r:id="rId288" xr:uid="{E6E2AF80-0F60-4068-8061-E50DAC66FD52}"/>
+    <hyperlink ref="B290" r:id="rId289" xr:uid="{8B8B8593-9E7E-4ECB-8280-9E7EB7F6E170}"/>
+    <hyperlink ref="B291" r:id="rId290" xr:uid="{DFFF1DD6-EC71-4293-AC7D-4A919D524C5E}"/>
+    <hyperlink ref="B292" r:id="rId291" xr:uid="{03E44681-DF9C-46A1-90E3-A0CAB8939155}"/>
+    <hyperlink ref="B293" r:id="rId292" xr:uid="{5CF3CC5F-E850-4CF6-92F3-4B4CF120986C}"/>
+    <hyperlink ref="B294" r:id="rId293" xr:uid="{D22E4AA0-47A2-4EAD-8D44-B7E7A241ED92}"/>
+    <hyperlink ref="B295" r:id="rId294" xr:uid="{8CED6168-2F55-4D3E-9A55-EC2641E74FA9}"/>
+    <hyperlink ref="B296" r:id="rId295" xr:uid="{A4DB2DC1-544A-4446-B217-46F0740CAD28}"/>
+    <hyperlink ref="B297" r:id="rId296" xr:uid="{18E11AD2-0D42-43CC-9B66-9006C1C5712C}"/>
+    <hyperlink ref="B298" r:id="rId297" xr:uid="{7653D58D-B864-401D-BD59-7B053F85E723}"/>
+    <hyperlink ref="B299" r:id="rId298" xr:uid="{2A9C83D1-3750-4284-8A16-81CE67788F41}"/>
+    <hyperlink ref="B300" r:id="rId299" xr:uid="{1E92D5C5-C331-4987-8A44-CFE9EE8856B8}"/>
+    <hyperlink ref="B301" r:id="rId300" xr:uid="{B83C85A5-5F47-4C4B-974B-42E8C4B05A34}"/>
+    <hyperlink ref="B302" r:id="rId301" xr:uid="{209248F9-CBFE-4D56-8400-E6E542510197}"/>
+    <hyperlink ref="B303" r:id="rId302" xr:uid="{AD518F1B-BE82-4EA0-B782-D2CE075B4E33}"/>
+    <hyperlink ref="B304" r:id="rId303" xr:uid="{B14CC7FA-BDEC-4CCE-9FE7-07B336824531}"/>
+    <hyperlink ref="B305" r:id="rId304" xr:uid="{9CF8CA61-4514-46DF-9F55-C812F8BDC40C}"/>
+    <hyperlink ref="B306" r:id="rId305" xr:uid="{AFB9B082-8B04-4B2C-B91A-C54F931F2656}"/>
+    <hyperlink ref="B307" r:id="rId306" xr:uid="{DC95A7D9-CF73-4D00-B343-D194C3E76EAA}"/>
+    <hyperlink ref="B308" r:id="rId307" xr:uid="{C126FFD7-3C48-449D-B703-8D72DF882AF4}"/>
+    <hyperlink ref="B309" r:id="rId308" xr:uid="{F9C510C7-3E03-4B06-8895-2C40C8037D1C}"/>
+    <hyperlink ref="B310" r:id="rId309" xr:uid="{B95E4F7B-1EBE-4A01-8894-E0E52F96E403}"/>
+    <hyperlink ref="B311" r:id="rId310" xr:uid="{D6B37C29-FA3E-400C-AC7E-9974699F7039}"/>
+    <hyperlink ref="B312" r:id="rId311" xr:uid="{27038D0D-D40C-4EE5-A91A-8590CD55C6B9}"/>
+    <hyperlink ref="B313" r:id="rId312" xr:uid="{F880DC39-B269-4C95-B6E1-19875314CC8B}"/>
+    <hyperlink ref="B314" r:id="rId313" xr:uid="{35AFA521-901A-41B7-A75A-1FA22F127F9C}"/>
+    <hyperlink ref="B315" r:id="rId314" xr:uid="{07B0D991-AF37-4537-97FC-F61F20D1BD1B}"/>
+    <hyperlink ref="B316" r:id="rId315" xr:uid="{DA1476AF-FAA4-41A5-AF8B-748D73219335}"/>
+    <hyperlink ref="B317" r:id="rId316" xr:uid="{CFB35AFC-E119-4F7D-9438-EC161B1F8CB4}"/>
+    <hyperlink ref="B318" r:id="rId317" xr:uid="{4C379816-9F67-49EE-9C21-5BE04744215B}"/>
+    <hyperlink ref="B319" r:id="rId318" xr:uid="{7F4BDE75-C764-47BC-B42D-3AC4C34B2078}"/>
+    <hyperlink ref="B320" r:id="rId319" xr:uid="{A4A697D7-2E7C-4DF8-8B27-60D5C67DCDCD}"/>
+    <hyperlink ref="B321" r:id="rId320" xr:uid="{CA3FE1F4-CFA4-4B21-B15F-DF6B65CC389C}"/>
+    <hyperlink ref="B322" r:id="rId321" xr:uid="{B1D38E6E-4AB5-4C4A-A0F6-7B99019ED80A}"/>
+    <hyperlink ref="B323" r:id="rId322" xr:uid="{1707F826-AB46-4D64-A176-A6E525166BE3}"/>
+    <hyperlink ref="B324" r:id="rId323" xr:uid="{DB80E11B-24F3-48F7-A4C8-BFE77597388D}"/>
+    <hyperlink ref="B325" r:id="rId324" xr:uid="{4CF92515-D691-4096-8E68-C331CE7A2A6F}"/>
+    <hyperlink ref="B326" r:id="rId325" xr:uid="{0A8329FF-0A67-4496-815D-0C8B58238700}"/>
+    <hyperlink ref="B327" r:id="rId326" xr:uid="{38CB40F4-79F3-4407-8A00-B4D82E46B4E6}"/>
+    <hyperlink ref="B328" r:id="rId327" xr:uid="{447AA4C5-DE44-436B-BC12-B0EDC087CD54}"/>
+    <hyperlink ref="B329" r:id="rId328" xr:uid="{C8119140-3133-4EDA-8206-21129B5C1AA2}"/>
+    <hyperlink ref="B330" r:id="rId329" xr:uid="{862D87DA-C933-434C-9711-893ED7709AB4}"/>
+    <hyperlink ref="B331" r:id="rId330" xr:uid="{92C6073D-0E9C-43BE-906B-8856D0EFE1D8}"/>
+    <hyperlink ref="B332" r:id="rId331" xr:uid="{B13CEE59-126B-4067-AC42-D3F655D9630E}"/>
+    <hyperlink ref="B333" r:id="rId332" xr:uid="{34D1EFE0-816B-44D8-9D9C-52787A1DCB13}"/>
+    <hyperlink ref="B334" r:id="rId333" xr:uid="{5B427C9A-E905-4B18-91A3-2A92EB0D6CA7}"/>
+    <hyperlink ref="B335" r:id="rId334" xr:uid="{414C5F00-F171-43D2-88F3-1BC125E75530}"/>
+    <hyperlink ref="B336" r:id="rId335" xr:uid="{8382F13D-EA80-4548-A17E-8D38D9D56AE6}"/>
+    <hyperlink ref="B337" r:id="rId336" xr:uid="{60FAAB11-9122-4A17-BFF6-83B64D892F55}"/>
+    <hyperlink ref="B338" r:id="rId337" xr:uid="{06A72138-AA9D-4BE9-835F-2D6ABB1D85BD}"/>
+    <hyperlink ref="B339" r:id="rId338" xr:uid="{793A163C-A499-471C-BE91-F54D9261F5CA}"/>
+    <hyperlink ref="B340" r:id="rId339" xr:uid="{552E7ECD-43E5-4CA8-AED4-D760FE5016AB}"/>
+    <hyperlink ref="B341" r:id="rId340" xr:uid="{A0AE3E2C-801C-402E-BAC3-3229F89544FE}"/>
+    <hyperlink ref="B342" r:id="rId341" xr:uid="{543AADEE-05FF-4996-B39C-247B05FB5BD7}"/>
+    <hyperlink ref="B343" r:id="rId342" xr:uid="{FDF1BFD5-BE9F-420B-805D-D2599E90A007}"/>
+    <hyperlink ref="B344" r:id="rId343" xr:uid="{ED3A656E-218F-404E-ACF1-EEB3DAA23524}"/>
+    <hyperlink ref="B345" r:id="rId344" xr:uid="{C76C2BB9-D14E-4E10-A223-524FABE7613B}"/>
+    <hyperlink ref="B346" r:id="rId345" xr:uid="{E0BCE213-3CA9-4BB6-BB61-3FBC6C775E3C}"/>
+    <hyperlink ref="B347" r:id="rId346" xr:uid="{A1358C1A-71D6-42AA-BF25-8585C3654A3F}"/>
+    <hyperlink ref="B348" r:id="rId347" xr:uid="{FBA94C49-D22C-410C-82E6-7820E04F5AD4}"/>
+    <hyperlink ref="B349" r:id="rId348" xr:uid="{146AE44F-80C8-4520-8F07-4F91645DEE21}"/>
+    <hyperlink ref="B350" r:id="rId349" xr:uid="{9B49075B-4F9D-4125-8B76-6531AA3C0DFD}"/>
+    <hyperlink ref="B351" r:id="rId350" xr:uid="{F31ABC68-C2F9-4F86-A123-76A390BEF98C}"/>
+    <hyperlink ref="B352" r:id="rId351" xr:uid="{9BB1D229-B3E3-4FF1-B51B-1E07821BC21B}"/>
+    <hyperlink ref="B353" r:id="rId352" xr:uid="{C1AA12F1-EA84-42AF-A65F-B9F86623C8BD}"/>
+    <hyperlink ref="B354" r:id="rId353" xr:uid="{C52F8A49-AF01-408C-8A33-7A71AC4D8DA9}"/>
+    <hyperlink ref="B355" r:id="rId354" xr:uid="{8090828B-CB75-4DAE-9C89-4C524A3F3E04}"/>
+    <hyperlink ref="B356" r:id="rId355" xr:uid="{DA06BF13-9B4C-4BD1-A3A1-747A2E8248EE}"/>
+    <hyperlink ref="B357" r:id="rId356" xr:uid="{43D90B81-0188-46EF-AB4B-FD95945A0708}"/>
+    <hyperlink ref="B358" r:id="rId357" xr:uid="{BEBB2918-3954-4B56-BFA6-5005FD6BDC82}"/>
+    <hyperlink ref="B359" r:id="rId358" xr:uid="{9BEC11F2-9EF1-4A08-995D-1A3BB7920E40}"/>
+    <hyperlink ref="B360" r:id="rId359" xr:uid="{92BF4CCF-7D2B-4818-902B-F8D296AEE0C5}"/>
+    <hyperlink ref="B361" r:id="rId360" xr:uid="{D8D7C3CF-0C2D-4995-BB70-9E6ABB1FD900}"/>
+    <hyperlink ref="B362" r:id="rId361" xr:uid="{8DDDDD46-C847-49B5-ABBD-3DC29A673822}"/>
+    <hyperlink ref="B363" r:id="rId362" xr:uid="{5EC8D316-A265-4E90-968B-60D0BF266C40}"/>
+    <hyperlink ref="B364" r:id="rId363" xr:uid="{ADF6A1B7-867D-4161-BB28-6F2FC9CD2CB5}"/>
+    <hyperlink ref="B365" r:id="rId364" xr:uid="{E9447559-29E6-43BD-B386-154E8A1364C5}"/>
+    <hyperlink ref="B366" r:id="rId365" xr:uid="{CA4ECA99-A091-4944-8869-AB8B6937F300}"/>
+    <hyperlink ref="B367" r:id="rId366" xr:uid="{789B3BC2-66C9-4DE6-9C3F-9B39AE7A5A4A}"/>
+    <hyperlink ref="B368" r:id="rId367" xr:uid="{7B46E365-705F-4092-8295-60BCCB6E246A}"/>
+    <hyperlink ref="B369" r:id="rId368" xr:uid="{9D247E89-52F6-459B-A984-DDB2472DD0E0}"/>
+    <hyperlink ref="B370" r:id="rId369" xr:uid="{849DC305-6258-4174-BABF-BB60CCD7E54B}"/>
+    <hyperlink ref="B371" r:id="rId370" xr:uid="{C8503FA9-FDC8-4501-9795-F8870ED00995}"/>
+    <hyperlink ref="B372" r:id="rId371" xr:uid="{939CA44A-8917-410A-8CDF-B01DF7BBBAA8}"/>
+    <hyperlink ref="B373" r:id="rId372" xr:uid="{FBC140AB-EA96-4883-B3D9-59EE0850F0F8}"/>
+    <hyperlink ref="B374" r:id="rId373" xr:uid="{490709AA-1115-4EAF-A5EA-76E31950BE16}"/>
+    <hyperlink ref="B375" r:id="rId374" xr:uid="{5CA18497-1F6B-4DD3-A808-2401C3273FEB}"/>
+    <hyperlink ref="B376" r:id="rId375" xr:uid="{BFBCF52B-1E00-43ED-BC7A-C8A50CDA8804}"/>
+    <hyperlink ref="B377" r:id="rId376" xr:uid="{1CF997E6-8EF8-47EB-B7E0-BA0A89B91C1F}"/>
+    <hyperlink ref="B378" r:id="rId377" xr:uid="{3355675E-1E60-4494-8B87-3C01603141BA}"/>
+    <hyperlink ref="B379" r:id="rId378" xr:uid="{8852F694-54D1-4C3E-92AA-576A8E1C526C}"/>
+    <hyperlink ref="B380" r:id="rId379" xr:uid="{C36EC277-5A4E-483A-811A-3520FEF8EF46}"/>
+    <hyperlink ref="B381" r:id="rId380" xr:uid="{64FF0A85-E1BF-44DC-A784-B047D479606F}"/>
+    <hyperlink ref="B382" r:id="rId381" xr:uid="{49940FF3-671C-451D-A1BE-CAA44D8A2A95}"/>
+    <hyperlink ref="B383" r:id="rId382" xr:uid="{6A7886C0-40E6-4F14-8C67-C3A8853F185C}"/>
+    <hyperlink ref="B384" r:id="rId383" xr:uid="{B2F70D64-926D-4730-80E6-02E12D0537E0}"/>
+    <hyperlink ref="B385" r:id="rId384" xr:uid="{DA53B5A8-89AD-4A00-9774-1AB272C4E266}"/>
+    <hyperlink ref="B386" r:id="rId385" xr:uid="{F8435D91-63E3-474E-B80E-D91887A6C529}"/>
+    <hyperlink ref="B387" r:id="rId386" xr:uid="{6E1D7B06-2DF4-4CAA-A3C2-4652CCDD9043}"/>
+    <hyperlink ref="B388" r:id="rId387" xr:uid="{ACD48036-2411-488C-A564-2F96C41F8C06}"/>
+    <hyperlink ref="B389" r:id="rId388" xr:uid="{B6C39E8D-8F5F-47EF-91BD-92B3C0FC67B4}"/>
+    <hyperlink ref="B390" r:id="rId389" xr:uid="{1DEE497D-FADB-4EEC-AB40-3995C3CDAA17}"/>
+    <hyperlink ref="B391" r:id="rId390" xr:uid="{49F87B62-DBF0-4E13-94EF-639295B4FCF8}"/>
+    <hyperlink ref="B392" r:id="rId391" xr:uid="{A98E6D58-A4CA-468D-AE0B-0555B85851A2}"/>
+    <hyperlink ref="B393" r:id="rId392" xr:uid="{E7A4A9C6-DE73-40E3-A5E6-E63248B6444B}"/>
+    <hyperlink ref="B394" r:id="rId393" xr:uid="{CD7C3E87-8042-4CDB-BF36-AD1F6ACBB78B}"/>
+    <hyperlink ref="B395" r:id="rId394" xr:uid="{215FE2C4-B6F8-4AF1-9BCC-8CC15DD8145E}"/>
+    <hyperlink ref="B396" r:id="rId395" xr:uid="{2E231CA2-6B66-4463-ABE4-4F945561C056}"/>
+    <hyperlink ref="B397" r:id="rId396" xr:uid="{343C2C7E-D36E-4D0F-B852-33E6BEA06526}"/>
+    <hyperlink ref="B398" r:id="rId397" xr:uid="{090F63CE-F184-404B-AFF0-C2A0DB1CC776}"/>
+    <hyperlink ref="B399" r:id="rId398" xr:uid="{295FD0CD-63CD-493A-AB7B-7CA0154BD785}"/>
+    <hyperlink ref="B400" r:id="rId399" xr:uid="{F94E420B-6D9C-45EB-8C80-66C1BFFC3715}"/>
+    <hyperlink ref="B401" r:id="rId400" xr:uid="{9482245B-F54A-4F03-8A09-249222F8A1E5}"/>
+    <hyperlink ref="B402" r:id="rId401" xr:uid="{7D4D3639-450D-4D94-A7CC-2B0BE02D66F1}"/>
+    <hyperlink ref="B403" r:id="rId402" xr:uid="{3D392A7A-4B53-4836-B2F4-1A6EA8E6B1BF}"/>
+    <hyperlink ref="B404" r:id="rId403" xr:uid="{75D26946-4C9A-4ADC-8684-D206806B06CD}"/>
+    <hyperlink ref="B405" r:id="rId404" xr:uid="{8F18AAA3-1256-45FC-A434-A8372224952D}"/>
+    <hyperlink ref="B406" r:id="rId405" xr:uid="{3EB334E6-3015-49A1-B973-3F41D9477C57}"/>
+    <hyperlink ref="B407" r:id="rId406" xr:uid="{9AEA419E-88D1-484E-887D-105F93478E57}"/>
+    <hyperlink ref="B408" r:id="rId407" xr:uid="{46182131-6A2B-46F3-AF64-2D14E9FF8D94}"/>
+    <hyperlink ref="B409" r:id="rId408" xr:uid="{12DA9166-D032-4BE0-ADF2-663E42488776}"/>
+    <hyperlink ref="B410" r:id="rId409" xr:uid="{016F9C4E-0B5D-4372-8C89-AA6DDB61403F}"/>
+    <hyperlink ref="B411" r:id="rId410" xr:uid="{647AB77B-4F7B-4497-81EE-7EE2B35987D6}"/>
+    <hyperlink ref="B412" r:id="rId411" xr:uid="{FBD3B382-C68B-46D2-9DDA-46ADE4F0D006}"/>
+    <hyperlink ref="B413" r:id="rId412" xr:uid="{425AE2BB-4277-44FA-AA18-45C15491FE57}"/>
+    <hyperlink ref="B414" r:id="rId413" xr:uid="{8943194F-83EF-4221-A294-760F47D02142}"/>
+    <hyperlink ref="B415" r:id="rId414" xr:uid="{D3FE3EEB-6839-4B8F-85AA-5F73361D0167}"/>
+    <hyperlink ref="B416" r:id="rId415" xr:uid="{ADD98FA8-5104-4E74-84AA-E3FF706A731F}"/>
+    <hyperlink ref="B417" r:id="rId416" xr:uid="{6579103A-48B8-4C66-8F8A-5921251024B2}"/>
+    <hyperlink ref="B418" r:id="rId417" xr:uid="{19E2B3E6-93B9-41A2-8A60-12311335D1D7}"/>
+    <hyperlink ref="B419" r:id="rId418" xr:uid="{0ECA40FF-137A-4E68-89F7-581CF9E61FBE}"/>
+    <hyperlink ref="B420" r:id="rId419" xr:uid="{93E900B2-9CB7-4DE4-9319-0B42B949C1DE}"/>
+    <hyperlink ref="B421" r:id="rId420" xr:uid="{C38D77D0-F452-4B0B-8990-2FC12BB6458A}"/>
+    <hyperlink ref="B422" r:id="rId421" xr:uid="{BBDB04E5-A70E-4BBE-9D81-EBFB25D9CAC5}"/>
+    <hyperlink ref="B423" r:id="rId422" xr:uid="{4B82A848-F588-4195-A603-AE02D8004FC1}"/>
+    <hyperlink ref="B424" r:id="rId423" xr:uid="{9F1AEC54-A305-4C71-BCF3-79A4DECEDD64}"/>
+    <hyperlink ref="B425" r:id="rId424" xr:uid="{47D40163-F65F-43E8-8FD2-B5AAEF142FB0}"/>
+    <hyperlink ref="B426" r:id="rId425" xr:uid="{126D383C-D668-4EF7-A744-33A812382E84}"/>
+    <hyperlink ref="B427" r:id="rId426" xr:uid="{A581A695-6E04-4597-BAC0-6948AECB8DA6}"/>
+    <hyperlink ref="B428" r:id="rId427" xr:uid="{A18A88B5-CAC5-4A53-884D-D67BCEA44DEE}"/>
+    <hyperlink ref="B429" r:id="rId428" xr:uid="{3EE59F6C-D1C8-4723-A91B-B9F56553DC07}"/>
+    <hyperlink ref="B430" r:id="rId429" xr:uid="{74EDE09D-FFD7-416D-89A1-11C21E472BF0}"/>
+    <hyperlink ref="B431" r:id="rId430" xr:uid="{7532EDB6-CA55-49F0-944B-92A065F01978}"/>
+    <hyperlink ref="B432" r:id="rId431" xr:uid="{E0B5A2A8-03EB-4F70-8026-E6010E9BF9B6}"/>
+    <hyperlink ref="B433" r:id="rId432" xr:uid="{1C02CF2C-8DF0-427D-A0A1-1ADB56DC0549}"/>
+    <hyperlink ref="B434" r:id="rId433" xr:uid="{0EDCF002-6BE0-4546-B46E-357F3278F259}"/>
+    <hyperlink ref="B435" r:id="rId434" xr:uid="{A9392F3C-631C-4C67-B207-F597DD6DAC00}"/>
+    <hyperlink ref="B436" r:id="rId435" xr:uid="{7FE380BA-771F-4B6E-B996-F501F6488168}"/>
+    <hyperlink ref="B437" r:id="rId436" xr:uid="{BC795985-489F-4B05-9BEF-FC0B65A01409}"/>
+    <hyperlink ref="B438" r:id="rId437" xr:uid="{8532C942-C3B7-456E-8819-CF5B9CB13091}"/>
+    <hyperlink ref="B439" r:id="rId438" xr:uid="{3BED47D3-3BF8-4863-8CBF-93500C660D4D}"/>
+    <hyperlink ref="B440" r:id="rId439" xr:uid="{8869C02E-FF5A-4770-ADDD-702D2E47278C}"/>
+    <hyperlink ref="B441" r:id="rId440" xr:uid="{12D3D269-F662-47AC-829D-43C050FF7504}"/>
+    <hyperlink ref="B442" r:id="rId441" xr:uid="{A082DC3D-0E74-4F25-B35A-49D9695C7FF8}"/>
+    <hyperlink ref="B443" r:id="rId442" xr:uid="{011CBD9C-9D18-406A-A238-F07FA334A6D3}"/>
+    <hyperlink ref="B444" r:id="rId443" xr:uid="{25F2608A-90F3-444F-A845-BC0E9A369581}"/>
+    <hyperlink ref="B445" r:id="rId444" xr:uid="{F59EE949-AAF9-4F85-9E08-A54C823754F6}"/>
+    <hyperlink ref="B446" r:id="rId445" xr:uid="{7FB26EF8-8122-43B9-A488-78848A777FD4}"/>
+    <hyperlink ref="B447" r:id="rId446" xr:uid="{9B837D4B-FB94-46EE-B53F-16C4E074BDE6}"/>
+    <hyperlink ref="B448" r:id="rId447" xr:uid="{54D311B3-E70A-49FC-A9C8-CE9345DF7B8F}"/>
+    <hyperlink ref="B449" r:id="rId448" xr:uid="{63943486-98D0-4F3A-A38F-DDB79193AD17}"/>
+    <hyperlink ref="B450" r:id="rId449" xr:uid="{50FA06B2-082D-4EE3-9B1E-1B027AB80475}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId450"/>
 </worksheet>
 </file>